--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5903C8-B13E-4195-9A5F-716519951E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97CF92-1CDC-42E4-BCB9-8739AD2341D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1170" windowWidth="38370" windowHeight="20370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,11 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,12 +470,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,9 +494,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -592,3135 +597,3135 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>-8.5774143741617737E-2</v>
+      <c r="B2" s="4">
+        <v>-8.5774143741617626E-2</v>
       </c>
       <c r="C2">
-        <v>7.9554051375683239E-4</v>
+        <v>7.9554051375683294E-4</v>
       </c>
       <c r="D2">
-        <v>-3.3882865562251449E-7</v>
+        <v>-3.3882865562320736E-7</v>
       </c>
       <c r="E2">
-        <v>-3.1513835615247335E-8</v>
+        <v>-3.1513835615236026E-8</v>
       </c>
       <c r="F2">
-        <v>1.07387445722204E-4</v>
+        <v>1.0738744572221134E-4</v>
       </c>
       <c r="G2">
-        <v>1.1706570698747254E-4</v>
+        <v>1.1706570698747212E-4</v>
       </c>
       <c r="H2">
-        <v>-3.8395062282880975E-6</v>
+        <v>-3.8395062282872979E-6</v>
       </c>
       <c r="I2">
-        <v>1.7249620786502048E-5</v>
+        <v>1.7249620786502224E-5</v>
       </c>
       <c r="J2">
-        <v>-8.6226937623638071E-7</v>
+        <v>-8.6226937623715913E-7</v>
       </c>
       <c r="K2">
-        <v>1.8180516953051715E-5</v>
+        <v>1.8180516953051992E-5</v>
       </c>
       <c r="L2">
-        <v>1.8847727059513524E-6</v>
+        <v>1.8847727059426517E-6</v>
       </c>
       <c r="M2">
-        <v>-1.3000099063793848E-5</v>
+        <v>-1.3000099063787749E-5</v>
       </c>
       <c r="N2">
-        <v>-2.6736292884622096E-5</v>
+        <v>-2.6736292884611444E-5</v>
       </c>
       <c r="O2">
-        <v>-3.0634151642341035E-6</v>
+        <v>-3.0634151642341272E-6</v>
       </c>
       <c r="P2">
-        <v>-2.2068057326846909E-5</v>
+        <v>3.8586696113821601E-6</v>
       </c>
       <c r="Q2">
-        <v>4.0651855244345017E-6</v>
+        <v>-1.8209387715501754E-5</v>
       </c>
       <c r="R2">
-        <v>-3.5180366367758443E-5</v>
+        <v>7.9238551357824552E-6</v>
       </c>
       <c r="S2">
-        <v>-3.2652875487997093E-5</v>
+        <v>-3.1321696756411472E-5</v>
       </c>
       <c r="T2">
-        <v>-1.3532699685870757E-6</v>
+        <v>-2.8794205876649044E-5</v>
       </c>
       <c r="U2">
-        <v>-3.8586696113312839E-6</v>
+        <v>2.5053996427595361E-6</v>
       </c>
       <c r="V2">
-        <v>-2.6074460489495502E-6</v>
+        <v>1.251223562397536E-6</v>
       </c>
       <c r="W2">
-        <v>-4.9184315654724718E-5</v>
+        <v>-4.5325646043378601E-5</v>
       </c>
       <c r="X2">
-        <v>-5.5216447002833695E-6</v>
+        <v>-1.6629750889303203E-6</v>
       </c>
       <c r="Y2">
-        <v>-4.8977285216093489E-6</v>
+        <v>-1.0390589102612599E-6</v>
       </c>
       <c r="Z2">
-        <v>-6.6298558883380758E-5</v>
+        <v>-6.2439889272036179E-5</v>
       </c>
       <c r="AA2">
-        <v>-2.7887685268113249E-5</v>
+        <v>-2.7887685268113087E-5</v>
       </c>
       <c r="AB2">
-        <v>-4.3343010457684182E-4</v>
+        <v>-4.3343010457684507E-4</v>
       </c>
       <c r="AC2">
-        <v>-1.1850518602316208E-4</v>
+        <v>-1.1850518602316132E-4</v>
       </c>
       <c r="AD2">
-        <v>-1.6924667076911084E-4</v>
+        <v>-1.6924667076911209E-4</v>
       </c>
       <c r="AE2">
-        <v>-8.8909563041116347E-5</v>
+        <v>-8.8909563041116889E-5</v>
       </c>
       <c r="AF2">
-        <v>6.9535313523973497E-6</v>
+        <v>6.953531352398007E-6</v>
       </c>
       <c r="AG2">
-        <v>-3.2194498986190209E-4</v>
+        <v>-3.2580365947332312E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>7.1762452864044382E-2</v>
+      <c r="B3" s="4">
+        <v>7.1762452864044521E-2</v>
       </c>
       <c r="C3">
-        <v>-3.3882865562251449E-7</v>
+        <v>-3.3882865562320736E-7</v>
       </c>
       <c r="D3">
-        <v>3.1430766415070597E-5</v>
+        <v>3.1430766415073172E-5</v>
       </c>
       <c r="E3">
-        <v>-3.0666353415362422E-7</v>
+        <v>-3.0666353415362629E-7</v>
       </c>
       <c r="F3">
-        <v>3.5173659313202426E-5</v>
+        <v>3.517365931320248E-5</v>
       </c>
       <c r="G3">
-        <v>2.6819458283075241E-5</v>
+        <v>2.6819458283085148E-5</v>
       </c>
       <c r="H3">
-        <v>-2.1030817132082261E-5</v>
+        <v>-2.1030817132083873E-5</v>
       </c>
       <c r="I3">
-        <v>-2.5736091659580505E-5</v>
+        <v>-2.5736091659578364E-5</v>
       </c>
       <c r="J3">
-        <v>2.56369289412482E-6</v>
+        <v>2.5636928941213463E-6</v>
       </c>
       <c r="K3">
-        <v>1.6806051959027851E-5</v>
+        <v>1.6806051959042139E-5</v>
       </c>
       <c r="L3">
-        <v>1.7956532877834796E-5</v>
+        <v>1.795653287782123E-5</v>
       </c>
       <c r="M3">
-        <v>1.4788741609670167E-5</v>
+        <v>1.4788741609677241E-5</v>
       </c>
       <c r="N3">
-        <v>4.1648459550732136E-6</v>
+        <v>4.1648459550893682E-6</v>
       </c>
       <c r="O3">
-        <v>7.5680982503682016E-7</v>
+        <v>7.568098250362662E-7</v>
       </c>
       <c r="P3">
-        <v>3.980637793379009E-6</v>
+        <v>1.3134690426604004E-5</v>
       </c>
       <c r="Q3">
-        <v>2.6480912275133695E-6</v>
+        <v>1.7115328219901292E-5</v>
       </c>
       <c r="R3">
-        <v>8.254407782382779E-6</v>
+        <v>1.5782781654050885E-5</v>
       </c>
       <c r="S3">
-        <v>1.098553669086468E-5</v>
+        <v>2.1389098208903379E-5</v>
       </c>
       <c r="T3">
-        <v>7.6292039679159529E-7</v>
+        <v>2.4120227117387051E-5</v>
       </c>
       <c r="U3">
-        <v>-1.3134690426487236E-5</v>
+        <v>1.3897610823323039E-5</v>
       </c>
       <c r="V3">
-        <v>-5.4537775559776837E-6</v>
+        <v>7.6809128705422136E-6</v>
       </c>
       <c r="W3">
-        <v>5.7629276559363911E-6</v>
+        <v>1.8897618082460246E-5</v>
       </c>
       <c r="X3">
-        <v>1.2577942151615728E-5</v>
+        <v>2.5712632578129635E-5</v>
       </c>
       <c r="Y3">
-        <v>-7.962968500250595E-6</v>
+        <v>5.1717219262837223E-6</v>
       </c>
       <c r="Z3">
-        <v>1.31887924160486E-6</v>
+        <v>1.4453569668132753E-5</v>
       </c>
       <c r="AA3">
-        <v>-1.4548776337754442E-5</v>
+        <v>-1.454877633775352E-5</v>
       </c>
       <c r="AB3">
-        <v>-1.60196119629396E-4</v>
+        <v>-1.6019611962940624E-4</v>
       </c>
       <c r="AC3">
-        <v>6.3443303901242545E-6</v>
+        <v>6.3443303901308682E-6</v>
       </c>
       <c r="AD3">
-        <v>2.2943154582634061E-5</v>
+        <v>2.294315458264512E-5</v>
       </c>
       <c r="AE3">
-        <v>1.3222171703882683E-5</v>
+        <v>1.322217170388954E-5</v>
       </c>
       <c r="AF3">
-        <v>-3.5401207776682587E-6</v>
+        <v>-3.5401207776701425E-6</v>
       </c>
       <c r="AG3">
-        <v>-6.9864054111452379E-4</v>
+        <v>-7.1177523154099297E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>-3.5146461609616118E-4</v>
+      <c r="B4" s="4">
+        <v>-3.5146461609616259E-4</v>
       </c>
       <c r="C4">
-        <v>-3.1513835615247335E-8</v>
+        <v>-3.1513835615236026E-8</v>
       </c>
       <c r="D4">
-        <v>-3.0666353415362422E-7</v>
+        <v>-3.0666353415362629E-7</v>
       </c>
       <c r="E4">
-        <v>3.1803124192375365E-9</v>
+        <v>3.1803124192375312E-9</v>
       </c>
       <c r="F4">
-        <v>-2.3988916541593055E-7</v>
+        <v>-2.3988916541592388E-7</v>
       </c>
       <c r="G4">
-        <v>-3.6282437791301423E-7</v>
+        <v>-3.6282437791311217E-7</v>
       </c>
       <c r="H4">
-        <v>1.4344462014696037E-7</v>
+        <v>1.4344462014697657E-7</v>
       </c>
       <c r="I4">
-        <v>4.604405053466793E-8</v>
+        <v>4.6044050534647601E-8</v>
       </c>
       <c r="J4">
-        <v>-6.532154765633357E-9</v>
+        <v>-6.5321547655984036E-9</v>
       </c>
       <c r="K4">
-        <v>-2.6145385192523362E-7</v>
+        <v>-2.61453851925371E-7</v>
       </c>
       <c r="L4">
-        <v>-2.8321830659366688E-7</v>
+        <v>-2.8321830659352775E-7</v>
       </c>
       <c r="M4">
-        <v>-2.2720048750787067E-7</v>
+        <v>-2.2720048750794161E-7</v>
       </c>
       <c r="N4">
-        <v>-1.1069862995689403E-7</v>
+        <v>-1.1069862995704946E-7</v>
       </c>
       <c r="O4">
-        <v>-2.84244324625277E-8</v>
+        <v>-2.8424432462522102E-8</v>
       </c>
       <c r="P4">
-        <v>-2.3546463896313698E-8</v>
+        <v>-6.0686996986024229E-8</v>
       </c>
       <c r="Q4">
-        <v>-3.5946119922074406E-8</v>
+        <v>-8.4233460881528587E-8</v>
       </c>
       <c r="R4">
-        <v>-7.546044160540551E-8</v>
+        <v>-9.663311690744028E-8</v>
       </c>
       <c r="S4">
-        <v>-1.1191511459655088E-7</v>
+        <v>-1.3614743859060112E-7</v>
       </c>
       <c r="T4">
-        <v>-5.5281758933945754E-8</v>
+        <v>-1.7260211158176719E-7</v>
       </c>
       <c r="U4">
-        <v>6.0686996984864641E-8</v>
+        <v>-1.1596875591924937E-7</v>
       </c>
       <c r="V4">
-        <v>3.4041895826669479E-8</v>
+        <v>-2.6645101158519576E-8</v>
       </c>
       <c r="W4">
-        <v>-6.781185768255549E-8</v>
+        <v>-1.2849885466778383E-7</v>
       </c>
       <c r="X4">
-        <v>-1.4606762844652788E-7</v>
+        <v>-2.0675462543165807E-7</v>
       </c>
       <c r="Y4">
-        <v>5.3724360376194299E-8</v>
+        <v>-6.9626366091421399E-9</v>
       </c>
       <c r="Z4">
-        <v>-1.2487347163299309E-8</v>
+        <v>-7.317434414857095E-8</v>
       </c>
       <c r="AA4">
-        <v>2.658724599473674E-7</v>
+        <v>2.658724599473585E-7</v>
       </c>
       <c r="AB4">
-        <v>1.2832821736775735E-6</v>
+        <v>1.2832821736776718E-6</v>
       </c>
       <c r="AC4">
-        <v>9.0216812975453306E-8</v>
+        <v>9.0216812975383849E-8</v>
       </c>
       <c r="AD4">
-        <v>-1.7446704481692566E-7</v>
+        <v>-1.7446704481703302E-7</v>
       </c>
       <c r="AE4">
-        <v>-2.5422349032714563E-7</v>
+        <v>-2.5422349032721509E-7</v>
       </c>
       <c r="AF4">
-        <v>1.9790425273167385E-8</v>
+        <v>1.9790425273186761E-8</v>
       </c>
       <c r="AG4">
-        <v>6.7573212312075876E-6</v>
+        <v>6.818008228192149E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.42536063075477865</v>
+      <c r="B5" s="4">
+        <v>-0.42536063075477842</v>
       </c>
       <c r="C5">
-        <v>1.07387445722204E-4</v>
+        <v>1.0738744572221134E-4</v>
       </c>
       <c r="D5">
-        <v>3.5173659313202426E-5</v>
+        <v>3.517365931320248E-5</v>
       </c>
       <c r="E5">
-        <v>-2.3988916541593055E-7</v>
+        <v>-2.3988916541592388E-7</v>
       </c>
       <c r="F5">
-        <v>1.8058267013458827E-2</v>
+        <v>1.8058267013458845E-2</v>
       </c>
       <c r="G5">
-        <v>2.8871330985389874E-4</v>
+        <v>2.8871330985392064E-4</v>
       </c>
       <c r="H5">
-        <v>-2.2940050199060294E-4</v>
+        <v>-2.2940050199061416E-4</v>
       </c>
       <c r="I5">
-        <v>-1.3018076435104288E-4</v>
+        <v>-1.3018076435104202E-4</v>
       </c>
       <c r="J5">
-        <v>-1.4708609855316775E-5</v>
+        <v>-1.4708609855326872E-5</v>
       </c>
       <c r="K5">
-        <v>1.4692692715186556E-4</v>
+        <v>1.4692692715189459E-4</v>
       </c>
       <c r="L5">
-        <v>1.2779173266107844E-4</v>
+        <v>1.277917326610322E-4</v>
       </c>
       <c r="M5">
-        <v>3.4536014901744651E-4</v>
+        <v>3.4536014901745009E-4</v>
       </c>
       <c r="N5">
-        <v>4.2154797385418738E-4</v>
+        <v>4.2154797385424267E-4</v>
       </c>
       <c r="O5">
-        <v>-9.6696326648898086E-5</v>
+        <v>-9.6696326648898248E-5</v>
       </c>
       <c r="P5">
-        <v>-7.2328528186815062E-5</v>
+        <v>1.7551310816240132E-5</v>
       </c>
       <c r="Q5">
-        <v>1.1576641953441557E-4</v>
+        <v>-5.4777217370832699E-5</v>
       </c>
       <c r="R5">
-        <v>1.4276516060331802E-4</v>
+        <v>1.3331773035043766E-4</v>
       </c>
       <c r="S5">
-        <v>9.0697322250328868E-5</v>
+        <v>1.6031647141930526E-4</v>
       </c>
       <c r="T5">
-        <v>1.5519257329896165E-4</v>
+        <v>1.0824863306631662E-4</v>
       </c>
       <c r="U5">
-        <v>-1.7551310815875406E-5</v>
+        <v>1.7274388411497171E-4</v>
       </c>
       <c r="V5">
-        <v>2.6527575757461983E-4</v>
+        <v>2.8282706839060615E-4</v>
       </c>
       <c r="W5">
-        <v>2.1758553174547183E-4</v>
+        <v>2.3513684256147084E-4</v>
       </c>
       <c r="X5">
-        <v>-5.7137041846742616E-5</v>
+        <v>-3.9585731030759115E-5</v>
       </c>
       <c r="Y5">
-        <v>-8.0366696452256444E-5</v>
+        <v>-6.2815385636238574E-5</v>
       </c>
       <c r="Z5">
-        <v>1.4201294960151315E-4</v>
+        <v>1.5956426041750793E-4</v>
       </c>
       <c r="AA5">
-        <v>-6.6924611586587578E-5</v>
+        <v>-6.6924611586586602E-5</v>
       </c>
       <c r="AB5">
-        <v>-2.1322546025616309E-3</v>
+        <v>-2.1322546025616855E-3</v>
       </c>
       <c r="AC5">
-        <v>1.073499630460592E-4</v>
+        <v>1.0734996304607265E-4</v>
       </c>
       <c r="AD5">
-        <v>-4.4482351804201175E-4</v>
+        <v>-4.4482351804198714E-4</v>
       </c>
       <c r="AE5">
-        <v>2.5916350965469206E-4</v>
+        <v>2.5916350965470296E-4</v>
       </c>
       <c r="AF5">
-        <v>5.9781083680345601E-6</v>
+        <v>5.9781083680316327E-6</v>
       </c>
       <c r="AG5">
-        <v>-1.364153178053317E-3</v>
+        <v>-1.3817044888693292E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>-5.8147488602280077E-2</v>
+      <c r="B6" s="4">
+        <v>-5.8147488602279723E-2</v>
       </c>
       <c r="C6">
-        <v>1.1706570698747254E-4</v>
+        <v>1.1706570698747212E-4</v>
       </c>
       <c r="D6">
-        <v>2.6819458283075241E-5</v>
+        <v>2.6819458283085148E-5</v>
       </c>
       <c r="E6">
-        <v>-3.6282437791301423E-7</v>
+        <v>-3.6282437791311217E-7</v>
       </c>
       <c r="F6">
-        <v>2.8871330985389874E-4</v>
+        <v>2.8871330985392064E-4</v>
       </c>
       <c r="G6">
-        <v>1.025507944437009E-3</v>
+        <v>1.0255079444370201E-3</v>
       </c>
       <c r="H6">
-        <v>3.0354676454875744E-6</v>
+        <v>3.0354676454815029E-6</v>
       </c>
       <c r="I6">
-        <v>-3.7604318482396489E-5</v>
+        <v>-3.7604318482393237E-5</v>
       </c>
       <c r="J6">
-        <v>3.9011164395703921E-5</v>
+        <v>3.9011164395697349E-5</v>
       </c>
       <c r="K6">
-        <v>2.8957831416014297E-4</v>
+        <v>2.8957831416015619E-4</v>
       </c>
       <c r="L6">
-        <v>3.9406506466645885E-4</v>
+        <v>3.9406506466641472E-4</v>
       </c>
       <c r="M6">
-        <v>4.6531665480964413E-4</v>
+        <v>4.653166548096489E-4</v>
       </c>
       <c r="N6">
-        <v>5.6293310908597577E-4</v>
+        <v>5.6293310908601968E-4</v>
       </c>
       <c r="O6">
-        <v>-2.0055144336593459E-5</v>
+        <v>-2.0055144336593513E-5</v>
       </c>
       <c r="P6">
-        <v>-1.7128347673123678E-5</v>
+        <v>5.1034634018537906E-5</v>
       </c>
       <c r="Q6">
-        <v>5.5242121836658544E-5</v>
+        <v>3.3906286345200152E-5</v>
       </c>
       <c r="R6">
-        <v>-1.1110879208257678E-6</v>
+        <v>1.0627675585500877E-4</v>
       </c>
       <c r="S6">
-        <v>4.2857547118323479E-5</v>
+        <v>4.9923546097500448E-5</v>
       </c>
       <c r="T6">
-        <v>4.0267291881199358E-5</v>
+        <v>9.3892181136652703E-5</v>
       </c>
       <c r="U6">
-        <v>-5.1034634018232595E-5</v>
+        <v>9.1301925899537608E-5</v>
       </c>
       <c r="V6">
-        <v>1.2413655068514967E-5</v>
+        <v>6.3448289086839556E-5</v>
       </c>
       <c r="W6">
-        <v>4.730837735045419E-5</v>
+        <v>9.834301136878729E-5</v>
       </c>
       <c r="X6">
-        <v>3.0011388315341289E-5</v>
+        <v>8.1046022333667775E-5</v>
       </c>
       <c r="Y6">
-        <v>2.7875817090674702E-5</v>
+        <v>7.8910451109023036E-5</v>
       </c>
       <c r="Z6">
-        <v>6.1566173116708834E-5</v>
+        <v>1.1260080713503917E-4</v>
       </c>
       <c r="AA6">
-        <v>4.2912127745978602E-5</v>
+        <v>4.2912127745979144E-5</v>
       </c>
       <c r="AB6">
-        <v>8.0473574746675993E-5</v>
+        <v>8.0473574746636094E-5</v>
       </c>
       <c r="AC6">
-        <v>2.3067459594768177E-4</v>
+        <v>2.3067459594769022E-4</v>
       </c>
       <c r="AD6">
-        <v>3.4934797622513856E-6</v>
+        <v>3.4934797622672149E-6</v>
       </c>
       <c r="AE6">
-        <v>-8.8595640943858766E-5</v>
+        <v>-8.8595640943852315E-5</v>
       </c>
       <c r="AF6">
-        <v>8.8167307850370628E-6</v>
+        <v>8.8167307850356533E-6</v>
       </c>
       <c r="AG6">
-        <v>-1.4004758967002201E-3</v>
+        <v>-1.4515105307184939E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>-7.2046005814956349E-2</v>
+      <c r="B7" s="4">
+        <v>-7.2046005814956404E-2</v>
       </c>
       <c r="C7">
-        <v>-3.8395062282880975E-6</v>
+        <v>-3.8395062282872979E-6</v>
       </c>
       <c r="D7">
-        <v>-2.1030817132082261E-5</v>
+        <v>-2.1030817132083873E-5</v>
       </c>
       <c r="E7">
-        <v>1.4344462014696037E-7</v>
+        <v>1.4344462014697657E-7</v>
       </c>
       <c r="F7">
-        <v>-2.2940050199060294E-4</v>
+        <v>-2.2940050199061416E-4</v>
       </c>
       <c r="G7">
-        <v>3.0354676454875744E-6</v>
+        <v>3.0354676454815029E-6</v>
       </c>
       <c r="H7">
-        <v>1.2595612709321562E-3</v>
+        <v>1.259561270932146E-3</v>
       </c>
       <c r="I7">
-        <v>1.017019018901706E-3</v>
+        <v>1.0170190189017034E-3</v>
       </c>
       <c r="J7">
-        <v>2.6534276880005523E-5</v>
+        <v>2.6534276880001687E-5</v>
       </c>
       <c r="K7">
-        <v>8.8566479139864034E-6</v>
+        <v>8.8566479139731982E-6</v>
       </c>
       <c r="L7">
-        <v>3.9891699859978823E-5</v>
+        <v>3.9891699859953073E-5</v>
       </c>
       <c r="M7">
-        <v>1.1927240452420148E-4</v>
+        <v>1.1927240452419198E-4</v>
       </c>
       <c r="N7">
-        <v>2.9026279238181002E-4</v>
+        <v>2.9026279238182488E-4</v>
       </c>
       <c r="O7">
-        <v>8.7621588975938574E-6</v>
+        <v>8.7621588975946637E-6</v>
       </c>
       <c r="P7">
-        <v>-1.0999101281311958E-5</v>
+        <v>-2.0429501271624088E-4</v>
       </c>
       <c r="Q7">
-        <v>-2.7932588634066202E-5</v>
+        <v>-2.1529411399765782E-4</v>
       </c>
       <c r="R7">
-        <v>-9.0686842648025052E-5</v>
+        <v>-2.3222760135040252E-4</v>
       </c>
       <c r="S7">
-        <v>-1.7085098502114623E-4</v>
+        <v>-2.9498185536436217E-4</v>
       </c>
       <c r="T7">
-        <v>-6.6541522835861667E-6</v>
+        <v>-3.751459977374852E-4</v>
       </c>
       <c r="U7">
-        <v>2.0429501271637413E-4</v>
+        <v>-2.1094916499991801E-4</v>
       </c>
       <c r="V7">
-        <v>-2.6424728669302214E-5</v>
+        <v>-2.307197413856342E-4</v>
       </c>
       <c r="W7">
-        <v>-7.4548340053685872E-5</v>
+        <v>-2.7884335277001901E-4</v>
       </c>
       <c r="X7">
-        <v>-1.1487135797696746E-4</v>
+        <v>-3.1916637069330256E-4</v>
       </c>
       <c r="Y7">
-        <v>-4.8676372062825854E-5</v>
+        <v>-2.529713847791609E-4</v>
       </c>
       <c r="Z7">
-        <v>-5.2537864515614385E-5</v>
+        <v>-2.5683287723195106E-4</v>
       </c>
       <c r="AA7">
-        <v>6.9402870949273514E-6</v>
+        <v>6.9402870949268364E-6</v>
       </c>
       <c r="AB7">
-        <v>6.4893297233357234E-4</v>
+        <v>6.4893297233354242E-4</v>
       </c>
       <c r="AC7">
-        <v>1.4858360882338308E-5</v>
+        <v>1.4858360882337115E-5</v>
       </c>
       <c r="AD7">
-        <v>5.0572832543897947E-5</v>
+        <v>5.0572832543894071E-5</v>
       </c>
       <c r="AE7">
-        <v>1.3767490408416003E-5</v>
+        <v>1.3767490408411802E-5</v>
       </c>
       <c r="AF7">
-        <v>2.1395250940923431E-5</v>
+        <v>2.1395250940921181E-5</v>
       </c>
       <c r="AG7">
-        <v>-7.1555395568034645E-4</v>
+        <v>-5.1125894296401222E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.39659048991188767</v>
+      <c r="B8" s="4">
+        <v>-0.39659048991188756</v>
       </c>
       <c r="C8">
-        <v>1.7249620786502048E-5</v>
+        <v>1.7249620786502224E-5</v>
       </c>
       <c r="D8">
-        <v>-2.5736091659580505E-5</v>
+        <v>-2.5736091659578364E-5</v>
       </c>
       <c r="E8">
-        <v>4.604405053466793E-8</v>
+        <v>4.6044050534647601E-8</v>
       </c>
       <c r="F8">
-        <v>-1.3018076435104288E-4</v>
+        <v>-1.3018076435104202E-4</v>
       </c>
       <c r="G8">
-        <v>-3.7604318482396489E-5</v>
+        <v>-3.7604318482393237E-5</v>
       </c>
       <c r="H8">
-        <v>1.017019018901706E-3</v>
+        <v>1.0170190189017034E-3</v>
       </c>
       <c r="I8">
-        <v>2.2367040279529281E-3</v>
+        <v>2.2367040279529299E-3</v>
       </c>
       <c r="J8">
-        <v>4.5500959050800555E-5</v>
+        <v>4.5500959050797458E-5</v>
       </c>
       <c r="K8">
-        <v>1.8069402451706048E-5</v>
+        <v>1.8069402451690259E-5</v>
       </c>
       <c r="L8">
-        <v>1.4281072229278664E-4</v>
+        <v>1.4281072229275853E-4</v>
       </c>
       <c r="M8">
-        <v>3.184156311783121E-4</v>
+        <v>3.1841563117830933E-4</v>
       </c>
       <c r="N8">
-        <v>5.4024398723856372E-4</v>
+        <v>5.4024398723858096E-4</v>
       </c>
       <c r="O8">
-        <v>1.5792239709796331E-5</v>
+        <v>1.5792239709797121E-5</v>
       </c>
       <c r="P8">
-        <v>-3.7867013041624904E-5</v>
+        <v>-1.9583646615370842E-4</v>
       </c>
       <c r="Q8">
-        <v>-5.4529170403007533E-5</v>
+        <v>-2.3370347919546297E-4</v>
       </c>
       <c r="R8">
-        <v>-8.4037310624417012E-5</v>
+        <v>-2.5036563655683356E-4</v>
       </c>
       <c r="S8">
-        <v>-2.0597637419037898E-4</v>
+        <v>-2.7987377677823986E-4</v>
       </c>
       <c r="T8">
-        <v>8.294287289610462E-5</v>
+        <v>-4.018128403442036E-4</v>
       </c>
       <c r="U8">
-        <v>1.9583646615387658E-4</v>
+        <v>-1.1289359325771631E-4</v>
       </c>
       <c r="V8">
-        <v>1.90076711082593E-5</v>
+        <v>-1.7682879504556256E-4</v>
       </c>
       <c r="W8">
-        <v>-7.3652179687068399E-5</v>
+        <v>-2.6948864584089001E-4</v>
       </c>
       <c r="X8">
-        <v>-1.3007207181727707E-4</v>
+        <v>-3.2590853797109749E-4</v>
       </c>
       <c r="Y8">
-        <v>-6.3932152492034161E-5</v>
+        <v>-2.5976861864585835E-4</v>
       </c>
       <c r="Z8">
-        <v>-1.242119251410935E-4</v>
+        <v>-3.2004839129492015E-4</v>
       </c>
       <c r="AA8">
-        <v>9.4899328408797729E-5</v>
+        <v>9.4899328408798054E-5</v>
       </c>
       <c r="AB8">
-        <v>3.8087017073485632E-4</v>
+        <v>3.8087017073482228E-4</v>
       </c>
       <c r="AC8">
-        <v>1.9898802664757064E-4</v>
+        <v>1.9898802664756999E-4</v>
       </c>
       <c r="AD8">
-        <v>5.0215983675907784E-5</v>
+        <v>5.0215983675904071E-5</v>
       </c>
       <c r="AE8">
-        <v>3.0514652699328273E-5</v>
+        <v>3.0514652699323991E-5</v>
       </c>
       <c r="AF8">
-        <v>4.7370006304391934E-5</v>
+        <v>4.7370006304391202E-5</v>
       </c>
       <c r="AG8">
-        <v>-1.0167415191356696E-3</v>
+        <v>-8.2090505298183921E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3">
-        <v>9.4866366618420739E-2</v>
+      <c r="B9" s="4">
+        <v>9.4866366618420767E-2</v>
       </c>
       <c r="C9">
-        <v>-8.6226937623638071E-7</v>
+        <v>-8.6226937623715913E-7</v>
       </c>
       <c r="D9">
-        <v>2.56369289412482E-6</v>
+        <v>2.5636928941213463E-6</v>
       </c>
       <c r="E9">
-        <v>-6.532154765633357E-9</v>
+        <v>-6.5321547655984036E-9</v>
       </c>
       <c r="F9">
-        <v>-1.4708609855316775E-5</v>
+        <v>-1.4708609855326872E-5</v>
       </c>
       <c r="G9">
-        <v>3.9011164395703921E-5</v>
+        <v>3.9011164395697349E-5</v>
       </c>
       <c r="H9">
-        <v>2.6534276880005523E-5</v>
+        <v>2.6534276880001687E-5</v>
       </c>
       <c r="I9">
-        <v>4.5500959050800555E-5</v>
+        <v>4.5500959050797458E-5</v>
       </c>
       <c r="J9">
-        <v>1.3958672724020258E-4</v>
+        <v>1.3958672724020111E-4</v>
       </c>
       <c r="K9">
-        <v>1.46878780368176E-6</v>
+        <v>1.4687878036809638E-6</v>
       </c>
       <c r="L9">
-        <v>2.2463475987066729E-6</v>
+        <v>2.2463475986957902E-6</v>
       </c>
       <c r="M9">
-        <v>-2.4245048791634899E-6</v>
+        <v>-2.4245048791538947E-6</v>
       </c>
       <c r="N9">
-        <v>-4.461850412065837E-6</v>
+        <v>-4.4618504120442614E-6</v>
       </c>
       <c r="O9">
-        <v>-3.6723240960115744E-6</v>
+        <v>-3.6723240960114279E-6</v>
       </c>
       <c r="P9">
-        <v>-8.8321138862993028E-6</v>
+        <v>3.3793008260649441E-5</v>
       </c>
       <c r="Q9">
-        <v>2.2348585126937351E-6</v>
+        <v>2.4960894374239902E-5</v>
       </c>
       <c r="R9">
-        <v>-1.8710639417703131E-5</v>
+        <v>3.602786677324427E-5</v>
       </c>
       <c r="S9">
-        <v>-6.1681507676708962E-6</v>
+        <v>1.5082368842846432E-5</v>
       </c>
       <c r="T9">
-        <v>6.2433368874550131E-6</v>
+        <v>2.7624857492874468E-5</v>
       </c>
       <c r="U9">
-        <v>-3.3793008260494183E-5</v>
+        <v>4.0036345148000045E-5</v>
       </c>
       <c r="V9">
-        <v>-1.397829400722191E-5</v>
+        <v>1.9814714253324126E-5</v>
       </c>
       <c r="W9">
-        <v>-3.9815180616056668E-6</v>
+        <v>2.9811490198942286E-5</v>
       </c>
       <c r="X9">
-        <v>-2.7175623057043943E-6</v>
+        <v>3.1075445954841885E-5</v>
       </c>
       <c r="Y9">
-        <v>-4.5159820610276256E-6</v>
+        <v>2.9277026199517244E-5</v>
       </c>
       <c r="Z9">
-        <v>2.2840051826258879E-6</v>
+        <v>3.6077013443173143E-5</v>
       </c>
       <c r="AA9">
-        <v>1.3819047281692597E-6</v>
+        <v>1.3819047281721599E-6</v>
       </c>
       <c r="AB9">
-        <v>-5.9277000661167784E-5</v>
+        <v>-5.9277000661196733E-5</v>
       </c>
       <c r="AC9">
-        <v>-1.5087971024229773E-5</v>
+        <v>-1.508797102422652E-5</v>
       </c>
       <c r="AD9">
-        <v>-1.9062678078048248E-5</v>
+        <v>-1.9062678078039791E-5</v>
       </c>
       <c r="AE9">
-        <v>2.073618079251117E-5</v>
+        <v>2.0736180792512037E-5</v>
       </c>
       <c r="AF9">
-        <v>-2.6515033020332141E-7</v>
+        <v>-2.6515033020325365E-7</v>
       </c>
       <c r="AG9">
-        <v>-6.0005536668827778E-4</v>
+        <v>-6.3384837494890277E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.46794053368644456</v>
+      <c r="B10" s="4">
+        <v>0.46794053368644517</v>
       </c>
       <c r="C10">
-        <v>1.8180516953051715E-5</v>
+        <v>1.8180516953051992E-5</v>
       </c>
       <c r="D10">
-        <v>1.6806051959027851E-5</v>
+        <v>1.6806051959042139E-5</v>
       </c>
       <c r="E10">
-        <v>-2.6145385192523362E-7</v>
+        <v>-2.61453851925371E-7</v>
       </c>
       <c r="F10">
-        <v>1.4692692715186556E-4</v>
+        <v>1.4692692715189459E-4</v>
       </c>
       <c r="G10">
-        <v>2.8957831416014297E-4</v>
+        <v>2.8957831416015619E-4</v>
       </c>
       <c r="H10">
-        <v>8.8566479139864034E-6</v>
+        <v>8.8566479139731982E-6</v>
       </c>
       <c r="I10">
-        <v>1.8069402451706048E-5</v>
+        <v>1.8069402451690259E-5</v>
       </c>
       <c r="J10">
-        <v>1.46878780368176E-6</v>
+        <v>1.4687878036809638E-6</v>
       </c>
       <c r="K10">
-        <v>2.1401360917772151E-3</v>
+        <v>2.1401360917772277E-3</v>
       </c>
       <c r="L10">
-        <v>1.789457979890574E-3</v>
+        <v>1.7894579798904985E-3</v>
       </c>
       <c r="M10">
-        <v>1.7554655686732334E-3</v>
+        <v>1.7554655686732278E-3</v>
       </c>
       <c r="N10">
-        <v>1.8062016921532469E-3</v>
+        <v>1.8062016921532834E-3</v>
       </c>
       <c r="O10">
-        <v>-2.5996583587170908E-5</v>
+        <v>-2.5996583587170443E-5</v>
       </c>
       <c r="P10">
-        <v>-1.1010905866818972E-4</v>
+        <v>6.033408771761832E-5</v>
       </c>
       <c r="Q10">
-        <v>2.3800529226815077E-5</v>
+        <v>-4.9774970950920185E-5</v>
       </c>
       <c r="R10">
-        <v>-5.2838576765376247E-5</v>
+        <v>8.4134616944111932E-5</v>
       </c>
       <c r="S10">
-        <v>-1.6991942335457279E-5</v>
+        <v>7.4955109518929329E-6</v>
       </c>
       <c r="T10">
-        <v>-5.3825503447579382E-5</v>
+        <v>4.3342145381806887E-5</v>
       </c>
       <c r="U10">
-        <v>-6.0334087717104842E-5</v>
+        <v>6.5085842697030528E-6</v>
       </c>
       <c r="V10">
-        <v>-3.8771714183987501E-5</v>
+        <v>2.1562373533282357E-5</v>
       </c>
       <c r="W10">
-        <v>2.8788110895563209E-5</v>
+        <v>8.9122198612844993E-5</v>
       </c>
       <c r="X10">
-        <v>-3.4825988800318147E-5</v>
+        <v>2.550809891695041E-5</v>
       </c>
       <c r="Y10">
-        <v>2.2161390900938389E-5</v>
+        <v>8.2495478618232641E-5</v>
       </c>
       <c r="Z10">
-        <v>9.6047307324595931E-5</v>
+        <v>1.5638139504186091E-4</v>
       </c>
       <c r="AA10">
-        <v>5.6497474392740339E-6</v>
+        <v>5.6497474392731666E-6</v>
       </c>
       <c r="AB10">
-        <v>8.2182989111100882E-4</v>
+        <v>8.2182989111092642E-4</v>
       </c>
       <c r="AC10">
-        <v>4.8147583085461848E-4</v>
+        <v>4.8147583085462846E-4</v>
       </c>
       <c r="AD10">
-        <v>-5.2209188599616502E-5</v>
+        <v>-5.2209188599588096E-5</v>
       </c>
       <c r="AE10">
-        <v>3.46062409863351E-4</v>
+        <v>3.460624098633625E-4</v>
       </c>
       <c r="AF10">
-        <v>8.47568911180053E-6</v>
+        <v>8.4756891117993916E-6</v>
       </c>
       <c r="AG10">
-        <v>-2.1177687311352686E-3</v>
+        <v>-2.1781028188525326E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.89059652037433845</v>
+      <c r="B11" s="4">
+        <v>0.89059652037433912</v>
       </c>
       <c r="C11">
-        <v>1.8847727059513524E-6</v>
+        <v>1.8847727059426517E-6</v>
       </c>
       <c r="D11">
-        <v>1.7956532877834796E-5</v>
+        <v>1.795653287782123E-5</v>
       </c>
       <c r="E11">
-        <v>-2.8321830659366688E-7</v>
+        <v>-2.8321830659352775E-7</v>
       </c>
       <c r="F11">
-        <v>1.2779173266107844E-4</v>
+        <v>1.277917326610322E-4</v>
       </c>
       <c r="G11">
-        <v>3.9406506466645885E-4</v>
+        <v>3.9406506466641472E-4</v>
       </c>
       <c r="H11">
-        <v>3.9891699859978823E-5</v>
+        <v>3.9891699859953073E-5</v>
       </c>
       <c r="I11">
-        <v>1.4281072229278664E-4</v>
+        <v>1.4281072229275853E-4</v>
       </c>
       <c r="J11">
-        <v>2.2463475987066729E-6</v>
+        <v>2.2463475986957902E-6</v>
       </c>
       <c r="K11">
-        <v>1.789457979890574E-3</v>
+        <v>1.7894579798904985E-3</v>
       </c>
       <c r="L11">
-        <v>2.4326475787367842E-3</v>
+        <v>2.4326475787367114E-3</v>
       </c>
       <c r="M11">
-        <v>2.1527849967814851E-3</v>
+        <v>2.1527849967814825E-3</v>
       </c>
       <c r="N11">
-        <v>2.1937531329892716E-3</v>
+        <v>2.1937531329893245E-3</v>
       </c>
       <c r="O11">
-        <v>-3.8773861695430121E-5</v>
+        <v>-3.8773861695429444E-5</v>
       </c>
       <c r="P11">
-        <v>-1.1224661066506104E-4</v>
+        <v>1.0989651791231498E-4</v>
       </c>
       <c r="Q11">
-        <v>4.9688029591732049E-5</v>
+        <v>-2.3500927531210775E-6</v>
       </c>
       <c r="R11">
-        <v>-5.5072324813817082E-5</v>
+        <v>1.595845475037003E-4</v>
       </c>
       <c r="S11">
-        <v>-1.6604948841316124E-5</v>
+        <v>5.4824193098125355E-5</v>
       </c>
       <c r="T11">
-        <v>-4.3145329689461029E-5</v>
+        <v>9.329156907062321E-5</v>
       </c>
       <c r="U11">
-        <v>-1.0989651791176464E-4</v>
+        <v>6.6751188222497143E-5</v>
       </c>
       <c r="V11">
-        <v>-3.5176803185289914E-5</v>
+        <v>7.471971472665373E-5</v>
       </c>
       <c r="W11">
-        <v>1.7051455028840911E-5</v>
+        <v>1.2694797294079616E-4</v>
       </c>
       <c r="X11">
-        <v>-7.4518530141152962E-6</v>
+        <v>1.0244466489783052E-4</v>
       </c>
       <c r="Y11">
-        <v>2.4448884263085654E-5</v>
+        <v>1.3434540217505488E-4</v>
       </c>
       <c r="Z11">
-        <v>3.5678643628868226E-5</v>
+        <v>1.4557516154080656E-4</v>
       </c>
       <c r="AA11">
-        <v>8.5086039290004035E-5</v>
+        <v>8.5086039290002843E-5</v>
       </c>
       <c r="AB11">
-        <v>8.539651623543261E-4</v>
+        <v>8.5396516235423546E-4</v>
       </c>
       <c r="AC11">
-        <v>7.1167903012518902E-4</v>
+        <v>7.1167903012520116E-4</v>
       </c>
       <c r="AD11">
-        <v>-3.9959265690520801E-7</v>
+        <v>-3.9959265687279037E-7</v>
       </c>
       <c r="AE11">
-        <v>4.1955015094516216E-4</v>
+        <v>4.1955015094517626E-4</v>
       </c>
       <c r="AF11">
-        <v>1.4353917610281965E-5</v>
+        <v>1.4353917610282181E-5</v>
       </c>
       <c r="AG11">
-        <v>-2.594162778849384E-3</v>
+        <v>-2.7040592967614192E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.3019523956140673</v>
+      <c r="B12" s="4">
+        <v>1.3019523956140679</v>
       </c>
       <c r="C12">
-        <v>-1.3000099063793848E-5</v>
+        <v>-1.3000099063787749E-5</v>
       </c>
       <c r="D12">
-        <v>1.4788741609670167E-5</v>
+        <v>1.4788741609677241E-5</v>
       </c>
       <c r="E12">
-        <v>-2.2720048750787067E-7</v>
+        <v>-2.2720048750794161E-7</v>
       </c>
       <c r="F12">
-        <v>3.4536014901744651E-4</v>
+        <v>3.4536014901745009E-4</v>
       </c>
       <c r="G12">
-        <v>4.6531665480964413E-4</v>
+        <v>4.653166548096489E-4</v>
       </c>
       <c r="H12">
-        <v>1.1927240452420148E-4</v>
+        <v>1.1927240452419198E-4</v>
       </c>
       <c r="I12">
-        <v>3.184156311783121E-4</v>
+        <v>3.1841563117830933E-4</v>
       </c>
       <c r="J12">
-        <v>-2.4245048791634899E-6</v>
+        <v>-2.4245048791538947E-6</v>
       </c>
       <c r="K12">
-        <v>1.7554655686732334E-3</v>
+        <v>1.7554655686732278E-3</v>
       </c>
       <c r="L12">
-        <v>2.1527849967814851E-3</v>
+        <v>2.1527849967814825E-3</v>
       </c>
       <c r="M12">
         <v>2.6742853176376221E-3</v>
       </c>
       <c r="N12">
-        <v>2.4952105865679386E-3</v>
+        <v>2.495210586568005E-3</v>
       </c>
       <c r="O12">
-        <v>-4.3453721614574097E-5</v>
+        <v>-4.3453721614573026E-5</v>
       </c>
       <c r="P12">
-        <v>-9.2216271751544877E-5</v>
+        <v>1.819053120894823E-4</v>
       </c>
       <c r="Q12">
-        <v>8.395261549515743E-5</v>
+        <v>8.9689040337543637E-5</v>
       </c>
       <c r="R12">
-        <v>-1.6707541527239176E-5</v>
+        <v>2.6585792758427457E-4</v>
       </c>
       <c r="S12">
-        <v>2.0101059393089259E-5</v>
+        <v>1.6519777056185408E-4</v>
       </c>
       <c r="T12">
-        <v>-1.4343205219384449E-6</v>
+        <v>2.0200637148217859E-4</v>
       </c>
       <c r="U12">
-        <v>-1.819053120889016E-4</v>
+        <v>1.8047099156716698E-4</v>
       </c>
       <c r="V12">
-        <v>-2.8259985860526016E-5</v>
+        <v>1.5364532622856759E-4</v>
       </c>
       <c r="W12">
-        <v>3.6259575916515398E-5</v>
+        <v>2.1816488800562158E-4</v>
       </c>
       <c r="X12">
-        <v>2.9013949706089095E-5</v>
+        <v>2.1091926179518813E-4</v>
       </c>
       <c r="Y12">
-        <v>-3.1269858840545775E-5</v>
+        <v>1.5063545324857201E-4</v>
       </c>
       <c r="Z12">
-        <v>8.5980273235722717E-5</v>
+        <v>2.6788558532481101E-4</v>
       </c>
       <c r="AA12">
-        <v>1.8875829952698809E-4</v>
+        <v>1.8875829952698722E-4</v>
       </c>
       <c r="AB12">
-        <v>-8.6129183727521805E-5</v>
+        <v>-8.6129183727623286E-5</v>
       </c>
       <c r="AC12">
-        <v>8.980530897190293E-4</v>
+        <v>8.9805308971904101E-4</v>
       </c>
       <c r="AD12">
-        <v>1.543380593852495E-4</v>
+        <v>1.5433805938528484E-4</v>
       </c>
       <c r="AE12">
-        <v>5.1135941201060399E-4</v>
+        <v>5.1135941201061841E-4</v>
       </c>
       <c r="AF12">
-        <v>1.6380644247392497E-5</v>
+        <v>1.638064424739434E-5</v>
       </c>
       <c r="AG12">
-        <v>-2.9111827745780545E-3</v>
+        <v>-3.0930880866673243E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>1.671789181466707</v>
+      <c r="B13" s="4">
+        <v>1.6717891814667074</v>
       </c>
       <c r="C13">
-        <v>-2.6736292884622096E-5</v>
+        <v>-2.6736292884611444E-5</v>
       </c>
       <c r="D13">
-        <v>4.1648459550732136E-6</v>
+        <v>4.1648459550893682E-6</v>
       </c>
       <c r="E13">
-        <v>-1.1069862995689403E-7</v>
+        <v>-1.1069862995704946E-7</v>
       </c>
       <c r="F13">
-        <v>4.2154797385418738E-4</v>
+        <v>4.2154797385424267E-4</v>
       </c>
       <c r="G13">
-        <v>5.6293310908597577E-4</v>
+        <v>5.6293310908601968E-4</v>
       </c>
       <c r="H13">
-        <v>2.9026279238181002E-4</v>
+        <v>2.9026279238182488E-4</v>
       </c>
       <c r="I13">
-        <v>5.4024398723856372E-4</v>
+        <v>5.4024398723858096E-4</v>
       </c>
       <c r="J13">
-        <v>-4.461850412065837E-6</v>
+        <v>-4.4618504120442614E-6</v>
       </c>
       <c r="K13">
-        <v>1.8062016921532469E-3</v>
+        <v>1.8062016921532834E-3</v>
       </c>
       <c r="L13">
-        <v>2.1937531329892716E-3</v>
+        <v>2.1937531329893245E-3</v>
       </c>
       <c r="M13">
-        <v>2.4952105865679386E-3</v>
+        <v>2.495210586568005E-3</v>
       </c>
       <c r="N13">
-        <v>3.3039566054508195E-3</v>
+        <v>3.3039566054509127E-3</v>
       </c>
       <c r="O13">
-        <v>-5.310353707945133E-5</v>
+        <v>-5.310353707944967E-5</v>
       </c>
       <c r="P13">
-        <v>-1.5171141249120115E-4</v>
+        <v>3.4206365341765731E-4</v>
       </c>
       <c r="Q13">
-        <v>3.4667798150917156E-5</v>
+        <v>1.9035224092606683E-4</v>
       </c>
       <c r="R13">
-        <v>-7.2450515122333758E-5</v>
+        <v>3.7673145156821093E-4</v>
       </c>
       <c r="S13">
-        <v>-3.363773817117069E-5</v>
+        <v>2.6961313829494075E-4</v>
       </c>
       <c r="T13">
-        <v>-1.0528725759998271E-4</v>
+        <v>3.0842591524609568E-4</v>
       </c>
       <c r="U13">
-        <v>-3.4206365341707748E-4</v>
+        <v>2.3677639581730315E-4</v>
       </c>
       <c r="V13">
-        <v>-1.6268380323973715E-4</v>
+        <v>1.7937985017754004E-4</v>
       </c>
       <c r="W13">
-        <v>-1.3208685770634248E-5</v>
+        <v>3.2885496764665416E-4</v>
       </c>
       <c r="X13">
-        <v>1.1513469221444356E-5</v>
+        <v>3.5357712263873195E-4</v>
       </c>
       <c r="Y13">
-        <v>-9.483330258615438E-5</v>
+        <v>2.4723035083114298E-4</v>
       </c>
       <c r="Z13">
-        <v>5.6849677521323642E-5</v>
+        <v>3.9891333093859237E-4</v>
       </c>
       <c r="AA13">
-        <v>4.2202489539563666E-4</v>
+        <v>4.2202489539563503E-4</v>
       </c>
       <c r="AB13">
-        <v>-2.4214226999090364E-4</v>
+        <v>-2.4214226999101033E-4</v>
       </c>
       <c r="AC13">
-        <v>1.1784321003325583E-3</v>
+        <v>1.1784321003325731E-3</v>
       </c>
       <c r="AD13">
-        <v>2.4569854127301537E-4</v>
+        <v>2.4569854127305744E-4</v>
       </c>
       <c r="AE13">
-        <v>6.3722016444976801E-4</v>
+        <v>6.3722016444978579E-4</v>
       </c>
       <c r="AF13">
-        <v>1.352071925204187E-5</v>
+        <v>1.3520719252047291E-5</v>
       </c>
       <c r="AG13">
-        <v>-3.0411655800238677E-3</v>
+        <v>-3.3832292334415913E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>4.7063691017810043E-2</v>
+      <c r="B14" s="4">
+        <v>4.7063691017810071E-2</v>
       </c>
       <c r="C14">
-        <v>-3.0634151642341035E-6</v>
+        <v>-3.0634151642341272E-6</v>
       </c>
       <c r="D14">
-        <v>7.5680982503682016E-7</v>
+        <v>7.568098250362662E-7</v>
       </c>
       <c r="E14">
-        <v>-2.84244324625277E-8</v>
+        <v>-2.8424432462522102E-8</v>
       </c>
       <c r="F14">
-        <v>-9.6696326648898086E-5</v>
+        <v>-9.6696326648898248E-5</v>
       </c>
       <c r="G14">
-        <v>-2.0055144336593459E-5</v>
+        <v>-2.0055144336593513E-5</v>
       </c>
       <c r="H14">
-        <v>8.7621588975938574E-6</v>
+        <v>8.7621588975946637E-6</v>
       </c>
       <c r="I14">
-        <v>1.5792239709796331E-5</v>
+        <v>1.5792239709797121E-5</v>
       </c>
       <c r="J14">
-        <v>-3.6723240960115744E-6</v>
+        <v>-3.6723240960114279E-6</v>
       </c>
       <c r="K14">
-        <v>-2.5996583587170908E-5</v>
+        <v>-2.5996583587170443E-5</v>
       </c>
       <c r="L14">
-        <v>-3.8773861695430121E-5</v>
+        <v>-3.8773861695429444E-5</v>
       </c>
       <c r="M14">
-        <v>-4.3453721614574097E-5</v>
+        <v>-4.3453721614573026E-5</v>
       </c>
       <c r="N14">
-        <v>-5.310353707945133E-5</v>
+        <v>-5.310353707944967E-5</v>
       </c>
       <c r="O14">
-        <v>1.9500416770656655E-5</v>
+        <v>1.9500416770656523E-5</v>
       </c>
       <c r="P14">
-        <v>4.2043435119628873E-6</v>
+        <v>-1.1778057375642091E-5</v>
       </c>
       <c r="Q14">
-        <v>2.8680145390875093E-6</v>
+        <v>-7.5737138636771927E-6</v>
       </c>
       <c r="R14">
-        <v>2.0919178243958563E-6</v>
+        <v>-8.9100428365519404E-6</v>
       </c>
       <c r="S14">
-        <v>-4.3072983535098373E-6</v>
+        <v>-9.6861395512449207E-6</v>
       </c>
       <c r="T14">
-        <v>-3.9744148219965358E-6</v>
+        <v>-1.6085355729150082E-5</v>
       </c>
       <c r="U14">
-        <v>1.1778057375640075E-5</v>
+        <v>-1.5752472197636333E-5</v>
       </c>
       <c r="V14">
-        <v>-2.3890071568138094E-6</v>
+        <v>-1.4167064532454669E-5</v>
       </c>
       <c r="W14">
-        <v>-5.0682369096750522E-6</v>
+        <v>-1.6846294285315874E-5</v>
       </c>
       <c r="X14">
-        <v>5.1928683624450236E-6</v>
+        <v>-6.5851890131970333E-6</v>
       </c>
       <c r="Y14">
-        <v>1.0039664563800127E-5</v>
+        <v>-1.7383928118393567E-6</v>
       </c>
       <c r="Z14">
-        <v>6.6633457798259998E-6</v>
+        <v>-5.1147115958134483E-6</v>
       </c>
       <c r="AA14">
-        <v>8.4767628670685605E-6</v>
+        <v>8.4767628670688773E-6</v>
       </c>
       <c r="AB14">
-        <v>-5.5493045125586528E-6</v>
+        <v>-5.5493045125578532E-6</v>
       </c>
       <c r="AC14">
-        <v>-4.4855262518461183E-6</v>
+        <v>-4.4855262518454474E-6</v>
       </c>
       <c r="AD14">
-        <v>-8.4288312597289969E-6</v>
+        <v>-8.4288312597290477E-6</v>
       </c>
       <c r="AE14">
-        <v>-1.6269222790007684E-5</v>
+        <v>-1.6269222790007088E-5</v>
       </c>
       <c r="AF14">
-        <v>-1.3087935374225574E-6</v>
+        <v>-1.3087935374226947E-6</v>
       </c>
       <c r="AG14">
-        <v>4.6894129483063908E-5</v>
+        <v>5.8672186858728235E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.26127754246614582</v>
+      <c r="B15" s="4">
+        <v>0.34245165492045232</v>
       </c>
       <c r="C15">
-        <v>-2.2068057326846909E-5</v>
+        <v>3.8586696113821601E-6</v>
       </c>
       <c r="D15">
-        <v>3.980637793379009E-6</v>
+        <v>1.3134690426604004E-5</v>
       </c>
       <c r="E15">
-        <v>-2.3546463896313698E-8</v>
+        <v>-6.0686996986024229E-8</v>
       </c>
       <c r="F15">
-        <v>-7.2328528186815062E-5</v>
+        <v>1.7551310816240132E-5</v>
       </c>
       <c r="G15">
-        <v>-1.7128347673123678E-5</v>
+        <v>5.1034634018537906E-5</v>
       </c>
       <c r="H15">
-        <v>-1.0999101281311958E-5</v>
+        <v>-2.0429501271624088E-4</v>
       </c>
       <c r="I15">
-        <v>-3.7867013041624904E-5</v>
+        <v>-1.9583646615370842E-4</v>
       </c>
       <c r="J15">
-        <v>-8.8321138862993028E-6</v>
+        <v>3.3793008260649441E-5</v>
       </c>
       <c r="K15">
-        <v>-1.1010905866818972E-4</v>
+        <v>6.033408771761832E-5</v>
       </c>
       <c r="L15">
-        <v>-1.1224661066506104E-4</v>
+        <v>1.0989651791231498E-4</v>
       </c>
       <c r="M15">
-        <v>-9.2216271751544877E-5</v>
+        <v>1.819053120894823E-4</v>
       </c>
       <c r="N15">
-        <v>-1.5171141249120115E-4</v>
+        <v>3.4206365341765731E-4</v>
       </c>
       <c r="O15">
-        <v>4.2043435119628873E-6</v>
+        <v>-1.1778057375642091E-5</v>
       </c>
       <c r="P15">
-        <v>5.4774250837865439E-3</v>
+        <v>5.74727341913258E-3</v>
       </c>
       <c r="Q15">
-        <v>3.5269472650207925E-3</v>
+        <v>2.2248844162848606E-3</v>
       </c>
       <c r="R15">
-        <v>3.5300737378963117E-3</v>
+        <v>2.2244567969518705E-3</v>
       </c>
       <c r="S15">
-        <v>3.5285693991847235E-3</v>
+        <v>2.2310946822206752E-3</v>
       </c>
       <c r="T15">
-        <v>3.5312736297803903E-3</v>
+        <v>2.2381779330095004E-3</v>
       </c>
       <c r="U15">
-        <v>3.5223890028481027E-3</v>
+        <v>2.1791826690403682E-3</v>
       </c>
       <c r="V15">
-        <v>3.5302919203382931E-3</v>
+        <v>2.1666444481890316E-3</v>
       </c>
       <c r="W15">
-        <v>3.5273151460018994E-3</v>
+        <v>2.216607733680842E-3</v>
       </c>
       <c r="X15">
-        <v>3.5221923142416335E-3</v>
+        <v>2.2636982660237171E-3</v>
       </c>
       <c r="Y15">
-        <v>3.5231106813425382E-3</v>
+        <v>2.2005943454368043E-3</v>
       </c>
       <c r="Z15">
-        <v>3.5262871882679402E-3</v>
+        <v>2.2187766107940547E-3</v>
       </c>
       <c r="AA15">
-        <v>2.8826067874930745E-5</v>
+        <v>1.5537227133504471E-4</v>
       </c>
       <c r="AB15">
-        <v>-1.3123213189771216E-4</v>
+        <v>-2.156024533705842E-3</v>
       </c>
       <c r="AC15">
-        <v>8.9633302899989366E-5</v>
+        <v>1.1126197190200081E-4</v>
       </c>
       <c r="AD15">
-        <v>-1.0261446142778552E-5</v>
+        <v>2.0364464277856307E-4</v>
       </c>
       <c r="AE15">
-        <v>1.7528193163910593E-5</v>
+        <v>-6.1345374703747715E-6</v>
       </c>
       <c r="AF15">
-        <v>7.0145353134144837E-6</v>
+        <v>-2.2633460836681381E-5</v>
       </c>
       <c r="AG15">
-        <v>-3.6077692831713911E-3</v>
+        <v>-2.5684226171661557E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
-        <v>5.9766537103137202E-2</v>
+      <c r="B16" s="4">
+        <v>0.60372919738659836</v>
       </c>
       <c r="C16">
-        <v>4.0651855244345017E-6</v>
+        <v>-1.8209387715501754E-5</v>
       </c>
       <c r="D16">
-        <v>2.6480912275133695E-6</v>
+        <v>1.7115328219901292E-5</v>
       </c>
       <c r="E16">
-        <v>-3.5946119922074406E-8</v>
+        <v>-8.4233460881528587E-8</v>
       </c>
       <c r="F16">
-        <v>1.1576641953441557E-4</v>
+        <v>-5.4777217370832699E-5</v>
       </c>
       <c r="G16">
-        <v>5.5242121836658544E-5</v>
+        <v>3.3906286345200152E-5</v>
       </c>
       <c r="H16">
-        <v>-2.7932588634066202E-5</v>
+        <v>-2.1529411399765782E-4</v>
       </c>
       <c r="I16">
-        <v>-5.4529170403007533E-5</v>
+        <v>-2.3370347919546297E-4</v>
       </c>
       <c r="J16">
-        <v>2.2348585126937351E-6</v>
+        <v>2.4960894374239902E-5</v>
       </c>
       <c r="K16">
-        <v>2.3800529226815077E-5</v>
+        <v>-4.9774970950920185E-5</v>
       </c>
       <c r="L16">
-        <v>4.9688029591732049E-5</v>
+        <v>-2.3500927531210775E-6</v>
       </c>
       <c r="M16">
-        <v>8.395261549515743E-5</v>
+        <v>8.9689040337543637E-5</v>
       </c>
       <c r="N16">
-        <v>3.4667798150917156E-5</v>
+        <v>1.9035224092606683E-4</v>
       </c>
       <c r="O16">
-        <v>2.8680145390875093E-6</v>
+        <v>-7.5737138636771927E-6</v>
       </c>
       <c r="P16">
-        <v>3.5269472650207925E-3</v>
+        <v>2.2248844162848606E-3</v>
       </c>
       <c r="Q16">
-        <v>5.6903542867192342E-3</v>
+        <v>4.1799204972232705E-3</v>
       </c>
       <c r="R16">
-        <v>3.5419676844799909E-3</v>
+        <v>2.229015059124565E-3</v>
       </c>
       <c r="S16">
-        <v>3.539891985163697E-3</v>
+        <v>2.2387794172688685E-3</v>
       </c>
       <c r="T16">
-        <v>3.5318228538934915E-3</v>
+        <v>2.2443583293461299E-3</v>
       </c>
       <c r="U16">
-        <v>3.5228166221810604E-3</v>
+        <v>2.1880672959726519E-3</v>
       </c>
       <c r="V16">
-        <v>3.5278855655561836E-3</v>
+        <v>2.1745473656792197E-3</v>
       </c>
       <c r="W16">
-        <v>3.5405500045381944E-3</v>
+        <v>2.2215338768346682E-3</v>
       </c>
       <c r="X16">
-        <v>3.5241357437496416E-3</v>
+        <v>2.2635015774172327E-3</v>
       </c>
       <c r="Y16">
-        <v>3.5271116902055029E-3</v>
+        <v>2.2013160239312711E-3</v>
       </c>
       <c r="Z16">
-        <v>3.5261115914026562E-3</v>
+        <v>2.2226747962138553E-3</v>
       </c>
       <c r="AA16">
-        <v>2.0480700105457352E-5</v>
+        <v>1.8419833920997131E-4</v>
       </c>
       <c r="AB16">
-        <v>2.6844043610633767E-4</v>
+        <v>-2.2872566656035914E-3</v>
       </c>
       <c r="AC16">
-        <v>8.7107963806709685E-5</v>
+        <v>2.0089527480194984E-4</v>
       </c>
       <c r="AD16">
-        <v>6.0951635845028383E-6</v>
+        <v>1.9338319663561837E-4</v>
       </c>
       <c r="AE16">
-        <v>1.2682035410714013E-4</v>
+        <v>1.1393655693419595E-5</v>
       </c>
       <c r="AF16">
-        <v>5.9653384948351088E-6</v>
+        <v>-1.561892552333691E-5</v>
       </c>
       <c r="AG16">
-        <v>-3.7480944360234409E-3</v>
+        <v>-2.6538028974857058E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.11070785745030408</v>
+      <c r="B17" s="4">
+        <v>0.40221819202358977</v>
       </c>
       <c r="C17">
-        <v>-3.5180366367758443E-5</v>
+        <v>7.9238551357824552E-6</v>
       </c>
       <c r="D17">
-        <v>8.254407782382779E-6</v>
+        <v>1.5782781654050885E-5</v>
       </c>
       <c r="E17">
-        <v>-7.546044160540551E-8</v>
+        <v>-9.663311690744028E-8</v>
       </c>
       <c r="F17">
-        <v>1.4276516060331802E-4</v>
+        <v>1.3331773035043766E-4</v>
       </c>
       <c r="G17">
-        <v>-1.1110879208257678E-6</v>
+        <v>1.0627675585500877E-4</v>
       </c>
       <c r="H17">
-        <v>-9.0686842648025052E-5</v>
+        <v>-2.3222760135040252E-4</v>
       </c>
       <c r="I17">
-        <v>-8.4037310624417012E-5</v>
+        <v>-2.5036563655683356E-4</v>
       </c>
       <c r="J17">
-        <v>-1.8710639417703131E-5</v>
+        <v>3.602786677324427E-5</v>
       </c>
       <c r="K17">
-        <v>-5.2838576765376247E-5</v>
+        <v>8.4134616944111932E-5</v>
       </c>
       <c r="L17">
-        <v>-5.5072324813817082E-5</v>
+        <v>1.595845475037003E-4</v>
       </c>
       <c r="M17">
-        <v>-1.6707541527239176E-5</v>
+        <v>2.6585792758427457E-4</v>
       </c>
       <c r="N17">
-        <v>-7.2450515122333758E-5</v>
+        <v>3.7673145156821093E-4</v>
       </c>
       <c r="O17">
-        <v>2.0919178243958563E-6</v>
+        <v>-8.9100428365519404E-6</v>
       </c>
       <c r="P17">
-        <v>3.5300737378963117E-3</v>
+        <v>2.2244567969518705E-3</v>
       </c>
       <c r="Q17">
-        <v>3.5419676844799909E-3</v>
+        <v>2.229015059124565E-3</v>
       </c>
       <c r="R17">
-        <v>5.657413187196981E-3</v>
+        <v>4.391994461490043E-3</v>
       </c>
       <c r="S17">
-        <v>3.5462371820033835E-3</v>
+        <v>2.2502457445195863E-3</v>
       </c>
       <c r="T17">
-        <v>3.5288184467720594E-3</v>
+        <v>2.2552532959921406E-3</v>
       </c>
       <c r="U17">
-        <v>3.5161787369122604E-3</v>
+        <v>2.1881889007527907E-3</v>
       </c>
       <c r="V17">
-        <v>3.5407876442091085E-3</v>
+        <v>2.1717133915641475E-3</v>
       </c>
       <c r="W17">
-        <v>3.5369480123814338E-3</v>
+        <v>2.2343411160379995E-3</v>
       </c>
       <c r="X17">
-        <v>3.5321371443067617E-3</v>
+        <v>2.2650173875922732E-3</v>
       </c>
       <c r="Y17">
-        <v>3.5263740744418729E-3</v>
+        <v>2.2048894134612694E-3</v>
       </c>
       <c r="Z17">
-        <v>3.5288858252483647E-3</v>
+        <v>2.2220715800156075E-3</v>
       </c>
       <c r="AA17">
-        <v>2.8785176256750761E-5</v>
+        <v>1.7585297144049702E-4</v>
       </c>
       <c r="AB17">
-        <v>1.4272041857781199E-5</v>
+        <v>-1.8875840975995373E-3</v>
       </c>
       <c r="AC17">
-        <v>4.569020698195125E-5</v>
+        <v>1.9836993570866821E-4</v>
       </c>
       <c r="AD17">
-        <v>3.8644057048577238E-5</v>
+        <v>2.0973980636289938E-4</v>
       </c>
       <c r="AE17">
-        <v>7.1317190120026054E-5</v>
+        <v>1.2068581663664905E-4</v>
       </c>
       <c r="AF17">
-        <v>-4.8188551633856548E-6</v>
+        <v>-1.6668122341916068E-5</v>
       </c>
       <c r="AG17">
-        <v>-3.520764984912128E-3</v>
+        <v>-2.7937004310048049E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
-        <v>8.870825539687377E-2</v>
+      <c r="B18" s="4">
+        <v>0.45315951237075663</v>
       </c>
       <c r="C18">
-        <v>-3.2652875487997093E-5</v>
+        <v>-3.1321696756411472E-5</v>
       </c>
       <c r="D18">
-        <v>1.098553669086468E-5</v>
+        <v>2.1389098208903379E-5</v>
       </c>
       <c r="E18">
-        <v>-1.1191511459655088E-7</v>
+        <v>-1.3614743859060112E-7</v>
       </c>
       <c r="F18">
-        <v>9.0697322250328868E-5</v>
+        <v>1.6031647141930526E-4</v>
       </c>
       <c r="G18">
-        <v>4.2857547118323479E-5</v>
+        <v>4.9923546097500448E-5</v>
       </c>
       <c r="H18">
-        <v>-1.7085098502114623E-4</v>
+        <v>-2.9498185536436217E-4</v>
       </c>
       <c r="I18">
-        <v>-2.0597637419037898E-4</v>
+        <v>-2.7987377677823986E-4</v>
       </c>
       <c r="J18">
-        <v>-6.1681507676708962E-6</v>
+        <v>1.5082368842846432E-5</v>
       </c>
       <c r="K18">
-        <v>-1.6991942335457279E-5</v>
+        <v>7.4955109518929329E-6</v>
       </c>
       <c r="L18">
-        <v>-1.6604948841316124E-5</v>
+        <v>5.4824193098125355E-5</v>
       </c>
       <c r="M18">
-        <v>2.0101059393089259E-5</v>
+        <v>1.6519777056185408E-4</v>
       </c>
       <c r="N18">
-        <v>-3.363773817117069E-5</v>
+        <v>2.6961313829494075E-4</v>
       </c>
       <c r="O18">
-        <v>-4.3072983535098373E-6</v>
+        <v>-9.6861395512449207E-6</v>
       </c>
       <c r="P18">
-        <v>3.5285693991847235E-3</v>
+        <v>2.2310946822206752E-3</v>
       </c>
       <c r="Q18">
-        <v>3.539891985163697E-3</v>
+        <v>2.2387794172688685E-3</v>
       </c>
       <c r="R18">
-        <v>3.5462371820033835E-3</v>
+        <v>2.2502457445195863E-3</v>
       </c>
       <c r="S18">
-        <v>5.6495126013186084E-3</v>
+        <v>4.3723291325053724E-3</v>
       </c>
       <c r="T18">
-        <v>3.5317773657011558E-3</v>
+        <v>2.2682363781006271E-3</v>
       </c>
       <c r="U18">
-        <v>3.5090954861233992E-3</v>
+        <v>2.1918223789001599E-3</v>
       </c>
       <c r="V18">
-        <v>3.5217735293484468E-3</v>
+        <v>2.1912533554858714E-3</v>
       </c>
       <c r="W18">
-        <v>3.5367271002444177E-3</v>
+        <v>2.2373770091500397E-3</v>
       </c>
       <c r="X18">
-        <v>3.5418350412728984E-3</v>
+        <v>2.2796566734181959E-3</v>
       </c>
       <c r="Y18">
-        <v>3.5253835747533855E-3</v>
+        <v>2.2107896829664385E-3</v>
       </c>
       <c r="Z18">
-        <v>3.5343086100291638E-3</v>
+        <v>2.2314836991301169E-3</v>
       </c>
       <c r="AA18">
-        <v>-2.08615562590133E-5</v>
+        <v>1.8415744759179051E-4</v>
       </c>
       <c r="AB18">
-        <v>1.2469532848982147E-4</v>
+        <v>-2.1417524918481011E-3</v>
       </c>
       <c r="AC18">
-        <v>3.2761694495561395E-4</v>
+        <v>1.5695217888391237E-4</v>
       </c>
       <c r="AD18">
-        <v>-2.8176467774619477E-5</v>
+        <v>2.422886998269763E-4</v>
       </c>
       <c r="AE18">
-        <v>7.2562780128609256E-5</v>
+        <v>6.5182652649536954E-5</v>
       </c>
       <c r="AF18">
-        <v>-1.5421707267768386E-6</v>
+        <v>-2.7452316000136859E-5</v>
       </c>
       <c r="AG18">
-        <v>-3.580425713974576E-3</v>
+        <v>-2.5730088651623093E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
-        <v>-7.85024906703745E-2</v>
+      <c r="B19" s="4">
+        <v>0.43115991031732626</v>
       </c>
       <c r="C19">
-        <v>-1.3532699685870757E-6</v>
+        <v>-2.8794205876649044E-5</v>
       </c>
       <c r="D19">
-        <v>7.6292039679159529E-7</v>
+        <v>2.4120227117387051E-5</v>
       </c>
       <c r="E19">
-        <v>-5.5281758933945754E-8</v>
+        <v>-1.7260211158176719E-7</v>
       </c>
       <c r="F19">
-        <v>1.5519257329896165E-4</v>
+        <v>1.0824863306631662E-4</v>
       </c>
       <c r="G19">
-        <v>4.0267291881199358E-5</v>
+        <v>9.3892181136652703E-5</v>
       </c>
       <c r="H19">
-        <v>-6.6541522835861667E-6</v>
+        <v>-3.751459977374852E-4</v>
       </c>
       <c r="I19">
-        <v>8.294287289610462E-5</v>
+        <v>-4.018128403442036E-4</v>
       </c>
       <c r="J19">
-        <v>6.2433368874550131E-6</v>
+        <v>2.7624857492874468E-5</v>
       </c>
       <c r="K19">
-        <v>-5.3825503447579382E-5</v>
+        <v>4.3342145381806887E-5</v>
       </c>
       <c r="L19">
-        <v>-4.3145329689461029E-5</v>
+        <v>9.329156907062321E-5</v>
       </c>
       <c r="M19">
-        <v>-1.4343205219384449E-6</v>
+        <v>2.0200637148217859E-4</v>
       </c>
       <c r="N19">
-        <v>-1.0528725759998271E-4</v>
+        <v>3.0842591524609568E-4</v>
       </c>
       <c r="O19">
-        <v>-3.9744148219965358E-6</v>
+        <v>-1.6085355729150082E-5</v>
       </c>
       <c r="P19">
-        <v>3.5312736297803903E-3</v>
+        <v>2.2381779330095004E-3</v>
       </c>
       <c r="Q19">
-        <v>3.5318228538934915E-3</v>
+        <v>2.2443583293461299E-3</v>
       </c>
       <c r="R19">
-        <v>3.5288184467720594E-3</v>
+        <v>2.2552532959921406E-3</v>
       </c>
       <c r="S19">
-        <v>3.5317773657011558E-3</v>
+        <v>2.2682363781006271E-3</v>
       </c>
       <c r="T19">
-        <v>5.4188072761116399E-3</v>
+        <v>4.378595048204704E-3</v>
       </c>
       <c r="U19">
-        <v>3.5680907500925548E-3</v>
+        <v>2.2018645486181049E-3</v>
       </c>
       <c r="V19">
-        <v>3.5402793374990534E-3</v>
+        <v>2.1793224914140588E-3</v>
       </c>
       <c r="W19">
-        <v>3.5491939069625762E-3</v>
+        <v>2.2442393478018735E-3</v>
       </c>
       <c r="X19">
-        <v>3.521679792467263E-3</v>
+        <v>2.2964378211731873E-3</v>
       </c>
       <c r="Y19">
-        <v>3.5298225848056108E-3</v>
+        <v>2.2168824340667989E-3</v>
       </c>
       <c r="Z19">
-        <v>3.5178138468047911E-3</v>
+        <v>2.2439897346997664E-3</v>
       </c>
       <c r="AA19">
-        <v>-4.8543329733307349E-5</v>
+        <v>1.345107150760261E-4</v>
       </c>
       <c r="AB19">
-        <v>7.0699347725715431E-5</v>
+        <v>-2.031329205216053E-3</v>
       </c>
       <c r="AC19">
-        <v>2.7998513235516585E-5</v>
+        <v>4.3887891685757464E-4</v>
       </c>
       <c r="AD19">
-        <v>7.2381637479164993E-6</v>
+        <v>1.7546817500377834E-4</v>
       </c>
       <c r="AE19">
-        <v>6.5831302139047749E-5</v>
+        <v>6.64282426581188E-5</v>
       </c>
       <c r="AF19">
-        <v>1.0363163126416342E-5</v>
+        <v>-2.4175631563527771E-5</v>
       </c>
       <c r="AG19">
-        <v>-3.5626308541654834E-3</v>
+        <v>-2.6397528450136194E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
-        <v>-0.3424516549204526</v>
+      <c r="B20" s="4">
+        <v>0.26394916425007803</v>
       </c>
       <c r="C20">
-        <v>-3.8586696113312839E-6</v>
+        <v>2.5053996427595361E-6</v>
       </c>
       <c r="D20">
-        <v>-1.3134690426487236E-5</v>
+        <v>1.3897610823323039E-5</v>
       </c>
       <c r="E20">
-        <v>6.0686996984864641E-8</v>
+        <v>-1.1596875591924937E-7</v>
       </c>
       <c r="F20">
-        <v>-1.7551310815875406E-5</v>
+        <v>1.7274388411497171E-4</v>
       </c>
       <c r="G20">
-        <v>-5.1034634018232595E-5</v>
+        <v>9.1301925899537608E-5</v>
       </c>
       <c r="H20">
-        <v>2.0429501271637413E-4</v>
+        <v>-2.1094916499991801E-4</v>
       </c>
       <c r="I20">
-        <v>1.9583646615387658E-4</v>
+        <v>-1.1289359325771631E-4</v>
       </c>
       <c r="J20">
-        <v>-3.3793008260494183E-5</v>
+        <v>4.0036345148000045E-5</v>
       </c>
       <c r="K20">
-        <v>-6.0334087717104842E-5</v>
+        <v>6.5085842697030528E-6</v>
       </c>
       <c r="L20">
-        <v>-1.0989651791176464E-4</v>
+        <v>6.6751188222497143E-5</v>
       </c>
       <c r="M20">
-        <v>-1.819053120889016E-4</v>
+        <v>1.8047099156716698E-4</v>
       </c>
       <c r="N20">
-        <v>-3.4206365341707748E-4</v>
+        <v>2.3677639581730315E-4</v>
       </c>
       <c r="O20">
-        <v>1.1778057375640075E-5</v>
+        <v>-1.5752472197636333E-5</v>
       </c>
       <c r="P20">
-        <v>3.5223890028481027E-3</v>
+        <v>2.1791826690403682E-3</v>
       </c>
       <c r="Q20">
-        <v>3.5228166221810604E-3</v>
+        <v>2.1880672959726519E-3</v>
       </c>
       <c r="R20">
-        <v>3.5161787369122604E-3</v>
+        <v>2.1881889007527907E-3</v>
       </c>
       <c r="S20">
-        <v>3.5090954861233992E-3</v>
+        <v>2.1918223789001599E-3</v>
       </c>
       <c r="T20">
-        <v>3.5680907500925548E-3</v>
+        <v>2.2018645486181049E-3</v>
       </c>
       <c r="U20">
-        <v>5.7472734191328428E-3</v>
+        <v>4.0298991950594417E-3</v>
       </c>
       <c r="V20">
-        <v>3.5806289709438971E-3</v>
+        <v>2.1388330355955176E-3</v>
       </c>
       <c r="W20">
-        <v>3.5306656854520576E-3</v>
+        <v>2.1977108905508781E-3</v>
       </c>
       <c r="X20">
-        <v>3.4835751531092406E-3</v>
+        <v>2.2172873083983972E-3</v>
       </c>
       <c r="Y20">
-        <v>3.5466790736960957E-3</v>
+        <v>2.1623261801498781E-3</v>
       </c>
       <c r="Z20">
-        <v>3.5284968083389404E-3</v>
+        <v>2.1684997075062393E-3</v>
       </c>
       <c r="AA20">
-        <v>-1.5537227133503612E-4</v>
+        <v>1.0682894160173127E-4</v>
       </c>
       <c r="AB20">
-        <v>2.156024533705858E-3</v>
+        <v>-2.0853251859801573E-3</v>
       </c>
       <c r="AC20">
-        <v>-1.1126197190193922E-4</v>
+        <v>1.3926048513747207E-4</v>
       </c>
       <c r="AD20">
-        <v>-2.036446427783091E-4</v>
+        <v>2.1088280652631133E-4</v>
       </c>
       <c r="AE20">
-        <v>6.1345374705522012E-6</v>
+        <v>5.9696764668556426E-5</v>
       </c>
       <c r="AF20">
-        <v>2.2633460836790371E-5</v>
+        <v>-1.2270297710336245E-5</v>
       </c>
       <c r="AG20">
-        <v>-3.1788508019722937E-3</v>
+        <v>-2.5629627212353113E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
-        <v>-7.7532842553477185E-2</v>
+      <c r="B21" s="4">
+        <v>0.26491881236697534</v>
       </c>
       <c r="C21">
-        <v>-2.6074460489495502E-6</v>
+        <v>1.251223562397536E-6</v>
       </c>
       <c r="D21">
-        <v>-5.4537775559776837E-6</v>
+        <v>7.6809128705422136E-6</v>
       </c>
       <c r="E21">
-        <v>3.4041895826669479E-8</v>
+        <v>-2.6645101158519576E-8</v>
       </c>
       <c r="F21">
-        <v>2.6527575757461983E-4</v>
+        <v>2.8282706839060615E-4</v>
       </c>
       <c r="G21">
-        <v>1.2413655068514967E-5</v>
+        <v>6.3448289086839556E-5</v>
       </c>
       <c r="H21">
-        <v>-2.6424728669302214E-5</v>
+        <v>-2.307197413856342E-4</v>
       </c>
       <c r="I21">
-        <v>1.90076711082593E-5</v>
+        <v>-1.7682879504556256E-4</v>
       </c>
       <c r="J21">
-        <v>-1.397829400722191E-5</v>
+        <v>1.9814714253324126E-5</v>
       </c>
       <c r="K21">
-        <v>-3.8771714183987501E-5</v>
+        <v>2.1562373533282357E-5</v>
       </c>
       <c r="L21">
-        <v>-3.5176803185289914E-5</v>
+        <v>7.471971472665373E-5</v>
       </c>
       <c r="M21">
-        <v>-2.8259985860526016E-5</v>
+        <v>1.5364532622856759E-4</v>
       </c>
       <c r="N21">
-        <v>-1.6268380323973715E-4</v>
+        <v>1.7937985017754004E-4</v>
       </c>
       <c r="O21">
-        <v>-2.3890071568138094E-6</v>
+        <v>-1.4167064532454669E-5</v>
       </c>
       <c r="P21">
-        <v>3.5302919203382931E-3</v>
+        <v>2.1666444481890316E-3</v>
       </c>
       <c r="Q21">
-        <v>3.5278855655561836E-3</v>
+        <v>2.1745473656792197E-3</v>
       </c>
       <c r="R21">
-        <v>3.5407876442091085E-3</v>
+        <v>2.1717133915641475E-3</v>
       </c>
       <c r="S21">
-        <v>3.5217735293484468E-3</v>
+        <v>2.1912533554858714E-3</v>
       </c>
       <c r="T21">
-        <v>3.5402793374990534E-3</v>
+        <v>2.1793224914140588E-3</v>
       </c>
       <c r="U21">
-        <v>3.5806289709438971E-3</v>
+        <v>2.1388330355955176E-3</v>
       </c>
       <c r="V21">
-        <v>4.8502322404581797E-3</v>
+        <v>3.436247717703306E-3</v>
       </c>
       <c r="W21">
-        <v>3.5430117698501424E-3</v>
+        <v>2.1789905325871098E-3</v>
       </c>
       <c r="X21">
-        <v>3.5143768441151923E-3</v>
+        <v>2.1974461391949902E-3</v>
       </c>
       <c r="Y21">
-        <v>3.5318853609258649E-3</v>
+        <v>2.1518507354187943E-3</v>
       </c>
       <c r="Z21">
-        <v>3.5225994586453434E-3</v>
+        <v>2.1607470984954602E-3</v>
       </c>
       <c r="AA21">
-        <v>-3.8706139881247649E-5</v>
+        <v>1.1666613145379254E-4</v>
       </c>
       <c r="AB21">
-        <v>-7.2646457724865818E-6</v>
+        <v>-2.1632891794783611E-3</v>
       </c>
       <c r="AC21">
-        <v>-2.1669587904722329E-4</v>
+        <v>-1.0543390714526629E-4</v>
       </c>
       <c r="AD21">
-        <v>7.2592208892767679E-5</v>
+        <v>2.7623685167116015E-4</v>
       </c>
       <c r="AE21">
-        <v>3.2348551288323662E-5</v>
+        <v>2.62140138178299E-5</v>
       </c>
       <c r="AF21">
-        <v>6.7639326668333206E-6</v>
+        <v>-1.5869528169918859E-5</v>
       </c>
       <c r="AG21">
-        <v>-3.3173193691858603E-3</v>
+        <v>-2.30511301540429E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
-        <v>3.175127715523253E-2</v>
+      <c r="B22" s="4">
+        <v>0.37420293207568506</v>
       </c>
       <c r="C22">
-        <v>-4.9184315654724718E-5</v>
+        <v>-4.5325646043378601E-5</v>
       </c>
       <c r="D22">
-        <v>5.7629276559363911E-6</v>
+        <v>1.8897618082460246E-5</v>
       </c>
       <c r="E22">
-        <v>-6.781185768255549E-8</v>
+        <v>-1.2849885466778383E-7</v>
       </c>
       <c r="F22">
-        <v>2.1758553174547183E-4</v>
+        <v>2.3513684256147084E-4</v>
       </c>
       <c r="G22">
-        <v>4.730837735045419E-5</v>
+        <v>9.834301136878729E-5</v>
       </c>
       <c r="H22">
-        <v>-7.4548340053685872E-5</v>
+        <v>-2.7884335277001901E-4</v>
       </c>
       <c r="I22">
-        <v>-7.3652179687068399E-5</v>
+        <v>-2.6948864584089001E-4</v>
       </c>
       <c r="J22">
-        <v>-3.9815180616056668E-6</v>
+        <v>2.9811490198942286E-5</v>
       </c>
       <c r="K22">
-        <v>2.8788110895563209E-5</v>
+        <v>8.9122198612844993E-5</v>
       </c>
       <c r="L22">
-        <v>1.7051455028840911E-5</v>
+        <v>1.2694797294079616E-4</v>
       </c>
       <c r="M22">
-        <v>3.6259575916515398E-5</v>
+        <v>2.1816488800562158E-4</v>
       </c>
       <c r="N22">
-        <v>-1.3208685770634248E-5</v>
+        <v>3.2885496764665416E-4</v>
       </c>
       <c r="O22">
-        <v>-5.0682369096750522E-6</v>
+        <v>-1.6846294285315874E-5</v>
       </c>
       <c r="P22">
-        <v>3.5273151460018994E-3</v>
+        <v>2.216607733680842E-3</v>
       </c>
       <c r="Q22">
-        <v>3.5405500045381944E-3</v>
+        <v>2.2215338768346682E-3</v>
       </c>
       <c r="R22">
-        <v>3.5369480123814338E-3</v>
+        <v>2.2343411160379995E-3</v>
       </c>
       <c r="S22">
-        <v>3.5367271002444177E-3</v>
+        <v>2.2373770091500397E-3</v>
       </c>
       <c r="T22">
-        <v>3.5491939069625762E-3</v>
+        <v>2.2442393478018735E-3</v>
       </c>
       <c r="U22">
-        <v>3.5306656854520576E-3</v>
+        <v>2.1977108905508781E-3</v>
       </c>
       <c r="V22">
-        <v>3.5430117698501424E-3</v>
+        <v>2.1789905325871098E-3</v>
       </c>
       <c r="W22">
-        <v>5.2528654233117995E-3</v>
+        <v>3.9388074715405955E-3</v>
       </c>
       <c r="X22">
-        <v>3.5256161520985391E-3</v>
+        <v>2.2586487326701635E-3</v>
       </c>
       <c r="Y22">
-        <v>3.5258181252770171E-3</v>
+        <v>2.1957467852617685E-3</v>
       </c>
       <c r="Z22">
-        <v>3.5220312977800828E-3</v>
+        <v>2.2101422231220243E-3</v>
       </c>
       <c r="AA22">
-        <v>1.0960634738336832E-5</v>
+        <v>1.6633290607337602E-4</v>
       </c>
       <c r="AB22">
-        <v>-1.4974078923786103E-4</v>
+        <v>-2.3057653229437364E-3</v>
       </c>
       <c r="AC22">
-        <v>-2.4862073318462604E-4</v>
+        <v>-1.37358761282666E-4</v>
       </c>
       <c r="AD22">
-        <v>1.1419814719085557E-4</v>
+        <v>3.1784278996925303E-4</v>
       </c>
       <c r="AE22">
-        <v>1.2729071215718344E-4</v>
+        <v>1.2115617468669363E-4</v>
       </c>
       <c r="AF22">
-        <v>-5.5935211088098836E-6</v>
+        <v>-2.822698194556125E-5</v>
       </c>
       <c r="AG22">
-        <v>-3.5378077656738616E-3</v>
+        <v>-2.5755646973842378E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.23965721114786523</v>
+      <c r="B23" s="4">
+        <v>0.58210886606831769</v>
       </c>
       <c r="C23">
-        <v>-5.5216447002833695E-6</v>
+        <v>-1.6629750889303203E-6</v>
       </c>
       <c r="D23">
-        <v>1.2577942151615728E-5</v>
+        <v>2.5712632578129635E-5</v>
       </c>
       <c r="E23">
-        <v>-1.4606762844652788E-7</v>
+        <v>-2.0675462543165807E-7</v>
       </c>
       <c r="F23">
-        <v>-5.7137041846742616E-5</v>
+        <v>-3.9585731030759115E-5</v>
       </c>
       <c r="G23">
-        <v>3.0011388315341289E-5</v>
+        <v>8.1046022333667775E-5</v>
       </c>
       <c r="H23">
-        <v>-1.1487135797696746E-4</v>
+        <v>-3.1916637069330256E-4</v>
       </c>
       <c r="I23">
-        <v>-1.3007207181727707E-4</v>
+        <v>-3.2590853797109749E-4</v>
       </c>
       <c r="J23">
-        <v>-2.7175623057043943E-6</v>
+        <v>3.1075445954841885E-5</v>
       </c>
       <c r="K23">
-        <v>-3.4825988800318147E-5</v>
+        <v>2.550809891695041E-5</v>
       </c>
       <c r="L23">
-        <v>-7.4518530141152962E-6</v>
+        <v>1.0244466489783052E-4</v>
       </c>
       <c r="M23">
-        <v>2.9013949706089095E-5</v>
+        <v>2.1091926179518813E-4</v>
       </c>
       <c r="N23">
-        <v>1.1513469221444356E-5</v>
+        <v>3.5357712263873195E-4</v>
       </c>
       <c r="O23">
-        <v>5.1928683624450236E-6</v>
+        <v>-6.5851890131970333E-6</v>
       </c>
       <c r="P23">
-        <v>3.5221923142416335E-3</v>
+        <v>2.2636982660237171E-3</v>
       </c>
       <c r="Q23">
-        <v>3.5241357437496416E-3</v>
+        <v>2.2635015774172327E-3</v>
       </c>
       <c r="R23">
-        <v>3.5321371443067617E-3</v>
+        <v>2.2650173875922732E-3</v>
       </c>
       <c r="S23">
-        <v>3.5418350412728984E-3</v>
+        <v>2.2796566734181959E-3</v>
       </c>
       <c r="T23">
-        <v>3.521679792467263E-3</v>
+        <v>2.2964378211731873E-3</v>
       </c>
       <c r="U23">
-        <v>3.4835751531092406E-3</v>
+        <v>2.2172873083983972E-3</v>
       </c>
       <c r="V23">
-        <v>3.5143768441151923E-3</v>
+        <v>2.1974461391949902E-3</v>
       </c>
       <c r="W23">
-        <v>3.5256161520985391E-3</v>
+        <v>2.2586487326701635E-3</v>
       </c>
       <c r="X23">
-        <v>7.955985451243059E-3</v>
+        <v>6.7361085641575308E-3</v>
       </c>
       <c r="Y23">
-        <v>3.5138203922538734E-3</v>
+        <v>2.2308395845814684E-3</v>
       </c>
       <c r="Z23">
-        <v>3.5180935810934996E-3</v>
+        <v>2.2532950387782816E-3</v>
       </c>
       <c r="AA23">
-        <v>1.4137239603195578E-6</v>
+        <v>1.5678599529535985E-4</v>
       </c>
       <c r="AB23">
-        <v>-2.2738946446519259E-4</v>
+        <v>-2.3834139981710719E-3</v>
       </c>
       <c r="AC23">
-        <v>1.4223286062701838E-4</v>
+        <v>2.5349483252897886E-4</v>
       </c>
       <c r="AD23">
-        <v>6.8660531437912567E-5</v>
+        <v>2.7230517421631285E-4</v>
       </c>
       <c r="AE23">
-        <v>4.9171399432948828E-5</v>
+        <v>4.3036861962458968E-5</v>
       </c>
       <c r="AF23">
-        <v>6.4415090503972005E-6</v>
+        <v>-1.6191951786353949E-5</v>
       </c>
       <c r="AG23">
-        <v>-3.7757870862706378E-3</v>
+        <v>-2.8606345503238819E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
-        <v>-3.5298004049418165E-2</v>
+      <c r="B24" s="4">
+        <v>0.30715365087103436</v>
       </c>
       <c r="C24">
-        <v>-4.8977285216093489E-6</v>
+        <v>-1.0390589102612599E-6</v>
       </c>
       <c r="D24">
-        <v>-7.962968500250595E-6</v>
+        <v>5.1717219262837223E-6</v>
       </c>
       <c r="E24">
-        <v>5.3724360376194299E-8</v>
+        <v>-6.9626366091421399E-9</v>
       </c>
       <c r="F24">
-        <v>-8.0366696452256444E-5</v>
+        <v>-6.2815385636238574E-5</v>
       </c>
       <c r="G24">
-        <v>2.7875817090674702E-5</v>
+        <v>7.8910451109023036E-5</v>
       </c>
       <c r="H24">
-        <v>-4.8676372062825854E-5</v>
+        <v>-2.529713847791609E-4</v>
       </c>
       <c r="I24">
-        <v>-6.3932152492034161E-5</v>
+        <v>-2.5976861864585835E-4</v>
       </c>
       <c r="J24">
-        <v>-4.5159820610276256E-6</v>
+        <v>2.9277026199517244E-5</v>
       </c>
       <c r="K24">
-        <v>2.2161390900938389E-5</v>
+        <v>8.2495478618232641E-5</v>
       </c>
       <c r="L24">
-        <v>2.4448884263085654E-5</v>
+        <v>1.3434540217505488E-4</v>
       </c>
       <c r="M24">
-        <v>-3.1269858840545775E-5</v>
+        <v>1.5063545324857201E-4</v>
       </c>
       <c r="N24">
-        <v>-9.483330258615438E-5</v>
+        <v>2.4723035083114298E-4</v>
       </c>
       <c r="O24">
-        <v>1.0039664563800127E-5</v>
+        <v>-1.7383928118393567E-6</v>
       </c>
       <c r="P24">
-        <v>3.5231106813425382E-3</v>
+        <v>2.2005943454368043E-3</v>
       </c>
       <c r="Q24">
-        <v>3.5271116902055029E-3</v>
+        <v>2.2013160239312711E-3</v>
       </c>
       <c r="R24">
-        <v>3.5263740744418729E-3</v>
+        <v>2.2048894134612694E-3</v>
       </c>
       <c r="S24">
-        <v>3.5253835747533855E-3</v>
+        <v>2.2107896829664385E-3</v>
       </c>
       <c r="T24">
-        <v>3.5298225848056108E-3</v>
+        <v>2.2168824340667989E-3</v>
       </c>
       <c r="U24">
-        <v>3.5466790736960957E-3</v>
+        <v>2.1623261801498781E-3</v>
       </c>
       <c r="V24">
-        <v>3.5318853609258649E-3</v>
+        <v>2.1518507354187943E-3</v>
       </c>
       <c r="W24">
-        <v>3.5258181252770171E-3</v>
+        <v>2.1957467852617685E-3</v>
       </c>
       <c r="X24">
-        <v>3.5138203922538734E-3</v>
+        <v>2.2308395845814684E-3</v>
       </c>
       <c r="Y24">
-        <v>5.9927264660064308E-3</v>
+        <v>4.6466417377471411E-3</v>
       </c>
       <c r="Z24">
-        <v>3.5235053182493216E-3</v>
+        <v>2.1956028553472232E-3</v>
       </c>
       <c r="AA24">
-        <v>-2.7576130753649737E-5</v>
+        <v>1.2779614058138945E-4</v>
       </c>
       <c r="AB24">
-        <v>8.849052976009613E-5</v>
+        <v>-2.0675340039457775E-3</v>
       </c>
       <c r="AC24">
-        <v>4.7627590597967839E-5</v>
+        <v>1.5888956249992549E-4</v>
       </c>
       <c r="AD24">
-        <v>-1.4810959145132216E-4</v>
+        <v>5.5535051327071556E-5</v>
       </c>
       <c r="AE24">
-        <v>4.7848905390549933E-5</v>
+        <v>4.1714367920057905E-5</v>
       </c>
       <c r="AF24">
-        <v>3.4936807649166355E-6</v>
+        <v>-1.9139780071834487E-5</v>
       </c>
       <c r="AG24">
-        <v>-3.2912136909929628E-3</v>
+        <v>-2.3129572344592632E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.22424133125601928</v>
+      <c r="B25" s="4">
+        <v>0.56669298617647179</v>
       </c>
       <c r="C25">
-        <v>-6.6298558883380758E-5</v>
+        <v>-6.2439889272036179E-5</v>
       </c>
       <c r="D25">
-        <v>1.31887924160486E-6</v>
+        <v>1.4453569668132753E-5</v>
       </c>
       <c r="E25">
-        <v>-1.2487347163299309E-8</v>
+        <v>-7.317434414857095E-8</v>
       </c>
       <c r="F25">
-        <v>1.4201294960151315E-4</v>
+        <v>1.5956426041750793E-4</v>
       </c>
       <c r="G25">
-        <v>6.1566173116708834E-5</v>
+        <v>1.1260080713503917E-4</v>
       </c>
       <c r="H25">
-        <v>-5.2537864515614385E-5</v>
+        <v>-2.5683287723195106E-4</v>
       </c>
       <c r="I25">
-        <v>-1.242119251410935E-4</v>
+        <v>-3.2004839129492015E-4</v>
       </c>
       <c r="J25">
-        <v>2.2840051826258879E-6</v>
+        <v>3.6077013443173143E-5</v>
       </c>
       <c r="K25">
-        <v>9.6047307324595931E-5</v>
+        <v>1.5638139504186091E-4</v>
       </c>
       <c r="L25">
-        <v>3.5678643628868226E-5</v>
+        <v>1.4557516154080656E-4</v>
       </c>
       <c r="M25">
-        <v>8.5980273235722717E-5</v>
+        <v>2.6788558532481101E-4</v>
       </c>
       <c r="N25">
-        <v>5.6849677521323642E-5</v>
+        <v>3.9891333093859237E-4</v>
       </c>
       <c r="O25">
-        <v>6.6633457798259998E-6</v>
+        <v>-5.1147115958134483E-6</v>
       </c>
       <c r="P25">
-        <v>3.5262871882679402E-3</v>
+        <v>2.2187766107940547E-3</v>
       </c>
       <c r="Q25">
-        <v>3.5261115914026562E-3</v>
+        <v>2.2226747962138553E-3</v>
       </c>
       <c r="R25">
-        <v>3.5288858252483647E-3</v>
+        <v>2.2220715800156075E-3</v>
       </c>
       <c r="S25">
-        <v>3.5343086100291638E-3</v>
+        <v>2.2314836991301169E-3</v>
       </c>
       <c r="T25">
-        <v>3.5178138468047911E-3</v>
+        <v>2.2439897346997664E-3</v>
       </c>
       <c r="U25">
-        <v>3.5284968083389404E-3</v>
+        <v>2.1684997075062393E-3</v>
       </c>
       <c r="V25">
-        <v>3.5225994586453434E-3</v>
+        <v>2.1607470984954602E-3</v>
       </c>
       <c r="W25">
-        <v>3.5220312977800828E-3</v>
+        <v>2.2101422231220243E-3</v>
       </c>
       <c r="X25">
-        <v>3.5180935810934996E-3</v>
+        <v>2.2532950387782816E-3</v>
       </c>
       <c r="Y25">
-        <v>3.5235053182493216E-3</v>
+        <v>2.1956028553472232E-3</v>
       </c>
       <c r="Z25">
-        <v>8.7026913457078411E-3</v>
+        <v>7.3929711481629436E-3</v>
       </c>
       <c r="AA25">
-        <v>-6.6874140794993039E-5</v>
+        <v>8.8498130540047635E-5</v>
       </c>
       <c r="AB25">
-        <v>1.3775811732363039E-4</v>
+        <v>-2.0182664163822645E-3</v>
       </c>
       <c r="AC25">
-        <v>1.1585808009731283E-4</v>
+        <v>2.2712005199927374E-4</v>
       </c>
       <c r="AD25">
-        <v>8.8417684865468946E-5</v>
+        <v>2.9206232764387036E-4</v>
       </c>
       <c r="AE25">
-        <v>1.0573342081682388E-4</v>
+        <v>9.9598883346332337E-5</v>
       </c>
       <c r="AF25">
-        <v>5.3205861695614131E-6</v>
+        <v>-1.7312874667189357E-5</v>
       </c>
       <c r="AG25">
-        <v>-3.6470383730538894E-3</v>
+        <v>-2.6869641818774511E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.39865779955428848</v>
+      <c r="B26" s="4">
+        <v>0.39865779955428832</v>
       </c>
       <c r="C26">
-        <v>-2.7887685268113249E-5</v>
+        <v>-2.7887685268113087E-5</v>
       </c>
       <c r="D26">
-        <v>-1.4548776337754442E-5</v>
+        <v>-1.454877633775352E-5</v>
       </c>
       <c r="E26">
-        <v>2.658724599473674E-7</v>
+        <v>2.658724599473585E-7</v>
       </c>
       <c r="F26">
-        <v>-6.6924611586587578E-5</v>
+        <v>-6.6924611586586602E-5</v>
       </c>
       <c r="G26">
-        <v>4.2912127745978602E-5</v>
+        <v>4.2912127745979144E-5</v>
       </c>
       <c r="H26">
-        <v>6.9402870949273514E-6</v>
+        <v>6.9402870949268364E-6</v>
       </c>
       <c r="I26">
-        <v>9.4899328408797729E-5</v>
+        <v>9.4899328408798054E-5</v>
       </c>
       <c r="J26">
-        <v>1.3819047281692597E-6</v>
+        <v>1.3819047281721599E-6</v>
       </c>
       <c r="K26">
-        <v>5.6497474392740339E-6</v>
+        <v>5.6497474392731666E-6</v>
       </c>
       <c r="L26">
-        <v>8.5086039290004035E-5</v>
+        <v>8.5086039290002843E-5</v>
       </c>
       <c r="M26">
-        <v>1.8875829952698809E-4</v>
+        <v>1.8875829952698722E-4</v>
       </c>
       <c r="N26">
-        <v>4.2202489539563666E-4</v>
+        <v>4.2202489539563503E-4</v>
       </c>
       <c r="O26">
-        <v>8.4767628670685605E-6</v>
+        <v>8.4767628670688773E-6</v>
       </c>
       <c r="P26">
-        <v>2.8826067874930745E-5</v>
+        <v>1.5537227133504471E-4</v>
       </c>
       <c r="Q26">
-        <v>2.0480700105457352E-5</v>
+        <v>1.8419833920997131E-4</v>
       </c>
       <c r="R26">
-        <v>2.8785176256750761E-5</v>
+        <v>1.7585297144049702E-4</v>
       </c>
       <c r="S26">
-        <v>-2.08615562590133E-5</v>
+        <v>1.8415744759179051E-4</v>
       </c>
       <c r="T26">
-        <v>-4.8543329733307349E-5</v>
+        <v>1.345107150760261E-4</v>
       </c>
       <c r="U26">
-        <v>-1.5537227133503612E-4</v>
+        <v>1.0682894160173127E-4</v>
       </c>
       <c r="V26">
-        <v>-3.8706139881247649E-5</v>
+        <v>1.1666613145379254E-4</v>
       </c>
       <c r="W26">
-        <v>1.0960634738336832E-5</v>
+        <v>1.6633290607337602E-4</v>
       </c>
       <c r="X26">
-        <v>1.4137239603195578E-6</v>
+        <v>1.5678599529535985E-4</v>
       </c>
       <c r="Y26">
-        <v>-2.7576130753649737E-5</v>
+        <v>1.2779614058138945E-4</v>
       </c>
       <c r="Z26">
-        <v>-6.6874140794993039E-5</v>
+        <v>8.8498130540047635E-5</v>
       </c>
       <c r="AA26">
-        <v>9.8378114781941207E-4</v>
+        <v>9.8378114781941272E-4</v>
       </c>
       <c r="AB26">
-        <v>-7.1110315069240781E-4</v>
+        <v>-7.1110315069241291E-4</v>
       </c>
       <c r="AC26">
-        <v>7.9944195864510808E-4</v>
+        <v>7.9944195864510689E-4</v>
       </c>
       <c r="AD26">
-        <v>1.2339029117990706E-4</v>
+        <v>1.2339029117990974E-4</v>
       </c>
       <c r="AE26">
-        <v>9.9928550526084581E-5</v>
+        <v>9.9928550526083904E-5</v>
       </c>
       <c r="AF26">
-        <v>-1.4794162497440174E-5</v>
+        <v>-1.4794162497436501E-5</v>
       </c>
       <c r="AG26">
-        <v>-4.5958354444745056E-4</v>
+        <v>-6.1495581578267767E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.25771308146828747</v>
+      <c r="B27" s="4">
+        <v>0.25771308146828709</v>
       </c>
       <c r="C27">
-        <v>-4.3343010457684182E-4</v>
+        <v>-4.3343010457684507E-4</v>
       </c>
       <c r="D27">
-        <v>-1.60196119629396E-4</v>
+        <v>-1.6019611962940624E-4</v>
       </c>
       <c r="E27">
-        <v>1.2832821736775735E-6</v>
+        <v>1.2832821736776718E-6</v>
       </c>
       <c r="F27">
-        <v>-2.1322546025616309E-3</v>
+        <v>-2.1322546025616855E-3</v>
       </c>
       <c r="G27">
-        <v>8.0473574746675993E-5</v>
+        <v>8.0473574746636094E-5</v>
       </c>
       <c r="H27">
-        <v>6.4893297233357234E-4</v>
+        <v>6.4893297233354242E-4</v>
       </c>
       <c r="I27">
-        <v>3.8087017073485632E-4</v>
+        <v>3.8087017073482228E-4</v>
       </c>
       <c r="J27">
-        <v>-5.9277000661167784E-5</v>
+        <v>-5.9277000661196733E-5</v>
       </c>
       <c r="K27">
-        <v>8.2182989111100882E-4</v>
+        <v>8.2182989111092642E-4</v>
       </c>
       <c r="L27">
-        <v>8.539651623543261E-4</v>
+        <v>8.5396516235423546E-4</v>
       </c>
       <c r="M27">
-        <v>-8.6129183727521805E-5</v>
+        <v>-8.6129183727623286E-5</v>
       </c>
       <c r="N27">
-        <v>-2.4214226999090364E-4</v>
+        <v>-2.4214226999101033E-4</v>
       </c>
       <c r="O27">
-        <v>-5.5493045125586528E-6</v>
+        <v>-5.5493045125578532E-6</v>
       </c>
       <c r="P27">
-        <v>-1.3123213189771216E-4</v>
+        <v>-2.156024533705842E-3</v>
       </c>
       <c r="Q27">
-        <v>2.6844043610633767E-4</v>
+        <v>-2.2872566656035914E-3</v>
       </c>
       <c r="R27">
-        <v>1.4272041857781199E-5</v>
+        <v>-1.8875840975995373E-3</v>
       </c>
       <c r="S27">
-        <v>1.2469532848982147E-4</v>
+        <v>-2.1417524918481011E-3</v>
       </c>
       <c r="T27">
-        <v>7.0699347725715431E-5</v>
+        <v>-2.031329205216053E-3</v>
       </c>
       <c r="U27">
-        <v>2.156024533705858E-3</v>
+        <v>-2.0853251859801573E-3</v>
       </c>
       <c r="V27">
-        <v>-7.2646457724865818E-6</v>
+        <v>-2.1632891794783611E-3</v>
       </c>
       <c r="W27">
-        <v>-1.4974078923786103E-4</v>
+        <v>-2.3057653229437364E-3</v>
       </c>
       <c r="X27">
-        <v>-2.2738946446519259E-4</v>
+        <v>-2.3834139981710719E-3</v>
       </c>
       <c r="Y27">
-        <v>8.849052976009613E-5</v>
+        <v>-2.0675340039457775E-3</v>
       </c>
       <c r="Z27">
-        <v>1.3775811732363039E-4</v>
+        <v>-2.0182664163822645E-3</v>
       </c>
       <c r="AA27">
-        <v>-7.1110315069240781E-4</v>
+        <v>-7.1110315069241291E-4</v>
       </c>
       <c r="AB27">
-        <v>0.10449163581108749</v>
+        <v>0.10449163581108752</v>
       </c>
       <c r="AC27">
-        <v>-7.5974657324569305E-4</v>
+        <v>-7.597465732457066E-4</v>
       </c>
       <c r="AD27">
-        <v>-9.6542944927778909E-4</v>
+        <v>-9.6542944927783961E-4</v>
       </c>
       <c r="AE27">
-        <v>-3.150837232726324E-4</v>
+        <v>-3.1508372327266297E-4</v>
       </c>
       <c r="AF27">
-        <v>7.6765128040046692E-5</v>
+        <v>7.6765128040017812E-5</v>
       </c>
       <c r="AG27">
-        <v>3.2931609675409717E-3</v>
+        <v>5.4491855012477183E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
-        <v>0.27830337763012603</v>
+      <c r="B28" s="4">
+        <v>0.27830337763012619</v>
       </c>
       <c r="C28">
-        <v>-1.1850518602316208E-4</v>
+        <v>-1.1850518602316132E-4</v>
       </c>
       <c r="D28">
-        <v>6.3443303901242545E-6</v>
+        <v>6.3443303901308682E-6</v>
       </c>
       <c r="E28">
-        <v>9.0216812975453306E-8</v>
+        <v>9.0216812975383849E-8</v>
       </c>
       <c r="F28">
-        <v>1.073499630460592E-4</v>
+        <v>1.0734996304607265E-4</v>
       </c>
       <c r="G28">
-        <v>2.3067459594768177E-4</v>
+        <v>2.3067459594769022E-4</v>
       </c>
       <c r="H28">
-        <v>1.4858360882338308E-5</v>
+        <v>1.4858360882337115E-5</v>
       </c>
       <c r="I28">
-        <v>1.9898802664757064E-4</v>
+        <v>1.9898802664756999E-4</v>
       </c>
       <c r="J28">
-        <v>-1.5087971024229773E-5</v>
+        <v>-1.508797102422652E-5</v>
       </c>
       <c r="K28">
-        <v>4.8147583085461848E-4</v>
+        <v>4.8147583085462846E-4</v>
       </c>
       <c r="L28">
-        <v>7.1167903012518902E-4</v>
+        <v>7.1167903012520116E-4</v>
       </c>
       <c r="M28">
-        <v>8.980530897190293E-4</v>
+        <v>8.9805308971904101E-4</v>
       </c>
       <c r="N28">
-        <v>1.1784321003325583E-3</v>
+        <v>1.1784321003325731E-3</v>
       </c>
       <c r="O28">
-        <v>-4.4855262518461183E-6</v>
+        <v>-4.4855262518454474E-6</v>
       </c>
       <c r="P28">
-        <v>8.9633302899989366E-5</v>
+        <v>1.1126197190200081E-4</v>
       </c>
       <c r="Q28">
-        <v>8.7107963806709685E-5</v>
+        <v>2.0089527480194984E-4</v>
       </c>
       <c r="R28">
-        <v>4.569020698195125E-5</v>
+        <v>1.9836993570866821E-4</v>
       </c>
       <c r="S28">
-        <v>3.2761694495561395E-4</v>
+        <v>1.5695217888391237E-4</v>
       </c>
       <c r="T28">
-        <v>2.7998513235516585E-5</v>
+        <v>4.3887891685757464E-4</v>
       </c>
       <c r="U28">
-        <v>-1.1126197190193922E-4</v>
+        <v>1.3926048513747207E-4</v>
       </c>
       <c r="V28">
-        <v>-2.1669587904722329E-4</v>
+        <v>-1.0543390714526629E-4</v>
       </c>
       <c r="W28">
-        <v>-2.4862073318462604E-4</v>
+        <v>-1.37358761282666E-4</v>
       </c>
       <c r="X28">
-        <v>1.4223286062701838E-4</v>
+        <v>2.5349483252897886E-4</v>
       </c>
       <c r="Y28">
-        <v>4.7627590597967839E-5</v>
+        <v>1.5888956249992549E-4</v>
       </c>
       <c r="Z28">
-        <v>1.1585808009731283E-4</v>
+        <v>2.2712005199927374E-4</v>
       </c>
       <c r="AA28">
-        <v>7.9944195864510808E-4</v>
+        <v>7.9944195864510689E-4</v>
       </c>
       <c r="AB28">
-        <v>-7.5974657324569305E-4</v>
+        <v>-7.597465732457066E-4</v>
       </c>
       <c r="AC28">
-        <v>6.5096660336530165E-2</v>
+        <v>6.5096660336530179E-2</v>
       </c>
       <c r="AD28">
-        <v>6.6761377693892038E-5</v>
+        <v>6.6761377693899681E-5</v>
       </c>
       <c r="AE28">
-        <v>2.4264065090901388E-5</v>
+        <v>2.4264065090904641E-5</v>
       </c>
       <c r="AF28">
-        <v>-4.5938356777560708E-5</v>
+        <v>-4.5938356777559827E-5</v>
       </c>
       <c r="AG28">
-        <v>-1.2179170031178712E-3</v>
+        <v>-1.3291789750199835E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3">
-        <v>-0.36165227110709608</v>
+      <c r="B29" s="4">
+        <v>-0.36165227110709591</v>
       </c>
       <c r="C29">
-        <v>-1.6924667076911084E-4</v>
+        <v>-1.6924667076911209E-4</v>
       </c>
       <c r="D29">
-        <v>2.2943154582634061E-5</v>
+        <v>2.294315458264512E-5</v>
       </c>
       <c r="E29">
-        <v>-1.7446704481692566E-7</v>
+        <v>-1.7446704481703302E-7</v>
       </c>
       <c r="F29">
-        <v>-4.4482351804201175E-4</v>
+        <v>-4.4482351804198714E-4</v>
       </c>
       <c r="G29">
-        <v>3.4934797622513856E-6</v>
+        <v>3.4934797622672149E-6</v>
       </c>
       <c r="H29">
-        <v>5.0572832543897947E-5</v>
+        <v>5.0572832543894071E-5</v>
       </c>
       <c r="I29">
-        <v>5.0215983675907784E-5</v>
+        <v>5.0215983675904071E-5</v>
       </c>
       <c r="J29">
-        <v>-1.9062678078048248E-5</v>
+        <v>-1.9062678078039791E-5</v>
       </c>
       <c r="K29">
-        <v>-5.2209188599616502E-5</v>
+        <v>-5.2209188599588096E-5</v>
       </c>
       <c r="L29">
-        <v>-3.9959265690520801E-7</v>
+        <v>-3.9959265687279037E-7</v>
       </c>
       <c r="M29">
-        <v>1.543380593852495E-4</v>
+        <v>1.5433805938528484E-4</v>
       </c>
       <c r="N29">
-        <v>2.4569854127301537E-4</v>
+        <v>2.4569854127305744E-4</v>
       </c>
       <c r="O29">
-        <v>-8.4288312597289969E-6</v>
+        <v>-8.4288312597290477E-6</v>
       </c>
       <c r="P29">
-        <v>-1.0261446142778552E-5</v>
+        <v>2.0364464277856307E-4</v>
       </c>
       <c r="Q29">
-        <v>6.0951635845028383E-6</v>
+        <v>1.9338319663561837E-4</v>
       </c>
       <c r="R29">
-        <v>3.8644057048577238E-5</v>
+        <v>2.0973980636289938E-4</v>
       </c>
       <c r="S29">
-        <v>-2.8176467774619477E-5</v>
+        <v>2.422886998269763E-4</v>
       </c>
       <c r="T29">
-        <v>7.2381637479164993E-6</v>
+        <v>1.7546817500377834E-4</v>
       </c>
       <c r="U29">
-        <v>-2.036446427783091E-4</v>
+        <v>2.1088280652631133E-4</v>
       </c>
       <c r="V29">
-        <v>7.2592208892767679E-5</v>
+        <v>2.7623685167116015E-4</v>
       </c>
       <c r="W29">
-        <v>1.1419814719085557E-4</v>
+        <v>3.1784278996925303E-4</v>
       </c>
       <c r="X29">
-        <v>6.8660531437912567E-5</v>
+        <v>2.7230517421631285E-4</v>
       </c>
       <c r="Y29">
-        <v>-1.4810959145132216E-4</v>
+        <v>5.5535051327071556E-5</v>
       </c>
       <c r="Z29">
-        <v>8.8417684865468946E-5</v>
+        <v>2.9206232764387036E-4</v>
       </c>
       <c r="AA29">
-        <v>1.2339029117990706E-4</v>
+        <v>1.2339029117990974E-4</v>
       </c>
       <c r="AB29">
-        <v>-9.6542944927778909E-4</v>
+        <v>-9.6542944927783961E-4</v>
       </c>
       <c r="AC29">
-        <v>6.6761377693892038E-5</v>
+        <v>6.6761377693899681E-5</v>
       </c>
       <c r="AD29">
-        <v>1.2962237456444118E-2</v>
+        <v>1.296223745644415E-2</v>
       </c>
       <c r="AE29">
-        <v>2.4649396015464744E-4</v>
+        <v>2.4649396015465839E-4</v>
       </c>
       <c r="AF29">
-        <v>-1.5400483903702314E-6</v>
+        <v>-1.5400483903688761E-6</v>
       </c>
       <c r="AG29">
-        <v>-8.4148927456891226E-4</v>
+        <v>-1.0451339173474009E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3">
-        <v>-8.3043074081768739E-2</v>
+      <c r="B30" s="4">
+        <v>-8.3043074081768517E-2</v>
       </c>
       <c r="C30">
-        <v>-8.8909563041116347E-5</v>
+        <v>-8.8909563041116889E-5</v>
       </c>
       <c r="D30">
-        <v>1.3222171703882683E-5</v>
+        <v>1.322217170388954E-5</v>
       </c>
       <c r="E30">
-        <v>-2.5422349032714563E-7</v>
+        <v>-2.5422349032721509E-7</v>
       </c>
       <c r="F30">
-        <v>2.5916350965469206E-4</v>
+        <v>2.5916350965470296E-4</v>
       </c>
       <c r="G30">
-        <v>-8.8595640943858766E-5</v>
+        <v>-8.8595640943852315E-5</v>
       </c>
       <c r="H30">
-        <v>1.3767490408416003E-5</v>
+        <v>1.3767490408411802E-5</v>
       </c>
       <c r="I30">
-        <v>3.0514652699328273E-5</v>
+        <v>3.0514652699323991E-5</v>
       </c>
       <c r="J30">
-        <v>2.073618079251117E-5</v>
+        <v>2.0736180792512037E-5</v>
       </c>
       <c r="K30">
-        <v>3.46062409863351E-4</v>
+        <v>3.460624098633625E-4</v>
       </c>
       <c r="L30">
-        <v>4.1955015094516216E-4</v>
+        <v>4.1955015094517626E-4</v>
       </c>
       <c r="M30">
-        <v>5.1135941201060399E-4</v>
+        <v>5.1135941201061841E-4</v>
       </c>
       <c r="N30">
-        <v>6.3722016444976801E-4</v>
+        <v>6.3722016444978579E-4</v>
       </c>
       <c r="O30">
-        <v>-1.6269222790007684E-5</v>
+        <v>-1.6269222790007088E-5</v>
       </c>
       <c r="P30">
-        <v>1.7528193163910593E-5</v>
+        <v>-6.1345374703747715E-6</v>
       </c>
       <c r="Q30">
-        <v>1.2682035410714013E-4</v>
+        <v>1.1393655693419595E-5</v>
       </c>
       <c r="R30">
-        <v>7.1317190120026054E-5</v>
+        <v>1.2068581663664905E-4</v>
       </c>
       <c r="S30">
-        <v>7.2562780128609256E-5</v>
+        <v>6.5182652649536954E-5</v>
       </c>
       <c r="T30">
-        <v>6.5831302139047749E-5</v>
+        <v>6.64282426581188E-5</v>
       </c>
       <c r="U30">
-        <v>6.1345374705522012E-6</v>
+        <v>5.9696764668556426E-5</v>
       </c>
       <c r="V30">
-        <v>3.2348551288323662E-5</v>
+        <v>2.62140138178299E-5</v>
       </c>
       <c r="W30">
-        <v>1.2729071215718344E-4</v>
+        <v>1.2115617468669363E-4</v>
       </c>
       <c r="X30">
-        <v>4.9171399432948828E-5</v>
+        <v>4.3036861962458968E-5</v>
       </c>
       <c r="Y30">
-        <v>4.7848905390549933E-5</v>
+        <v>4.1714367920057905E-5</v>
       </c>
       <c r="Z30">
-        <v>1.0573342081682388E-4</v>
+        <v>9.9598883346332337E-5</v>
       </c>
       <c r="AA30">
-        <v>9.9928550526084581E-5</v>
+        <v>9.9928550526083904E-5</v>
       </c>
       <c r="AB30">
-        <v>-3.150837232726324E-4</v>
+        <v>-3.1508372327266297E-4</v>
       </c>
       <c r="AC30">
-        <v>2.4264065090901388E-5</v>
+        <v>2.4264065090904641E-5</v>
       </c>
       <c r="AD30">
-        <v>2.4649396015464744E-4</v>
+        <v>2.4649396015465839E-4</v>
       </c>
       <c r="AE30">
-        <v>1.1152447270636264E-3</v>
+        <v>1.1152447270636363E-3</v>
       </c>
       <c r="AF30">
-        <v>9.0827740962338554E-6</v>
+        <v>9.0827740962336927E-6</v>
       </c>
       <c r="AG30">
-        <v>-1.0436834222546515E-3</v>
+        <v>-1.0375488847841298E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3">
-        <v>-7.7665069103440053E-4</v>
+      <c r="B31" s="4">
+        <v>-7.7665069103434578E-4</v>
       </c>
       <c r="C31">
-        <v>6.9535313523973497E-6</v>
+        <v>6.953531352398007E-6</v>
       </c>
       <c r="D31">
-        <v>-3.5401207776682587E-6</v>
+        <v>-3.5401207776701425E-6</v>
       </c>
       <c r="E31">
-        <v>1.9790425273167385E-8</v>
+        <v>1.9790425273186761E-8</v>
       </c>
       <c r="F31">
-        <v>5.9781083680345601E-6</v>
+        <v>5.9781083680316327E-6</v>
       </c>
       <c r="G31">
-        <v>8.8167307850370628E-6</v>
+        <v>8.8167307850356533E-6</v>
       </c>
       <c r="H31">
-        <v>2.1395250940923431E-5</v>
+        <v>2.1395250940921181E-5</v>
       </c>
       <c r="I31">
-        <v>4.7370006304391934E-5</v>
+        <v>4.7370006304391202E-5</v>
       </c>
       <c r="J31">
-        <v>-2.6515033020332141E-7</v>
+        <v>-2.6515033020325365E-7</v>
       </c>
       <c r="K31">
-        <v>8.47568911180053E-6</v>
+        <v>8.4756891117993916E-6</v>
       </c>
       <c r="L31">
-        <v>1.4353917610281965E-5</v>
+        <v>1.4353917610282181E-5</v>
       </c>
       <c r="M31">
-        <v>1.6380644247392497E-5</v>
+        <v>1.638064424739434E-5</v>
       </c>
       <c r="N31">
-        <v>1.352071925204187E-5</v>
+        <v>1.3520719252047291E-5</v>
       </c>
       <c r="O31">
-        <v>-1.3087935374225574E-6</v>
+        <v>-1.3087935374226947E-6</v>
       </c>
       <c r="P31">
-        <v>7.0145353134144837E-6</v>
+        <v>-2.2633460836681381E-5</v>
       </c>
       <c r="Q31">
-        <v>5.9653384948351088E-6</v>
+        <v>-1.561892552333691E-5</v>
       </c>
       <c r="R31">
-        <v>-4.8188551633856548E-6</v>
+        <v>-1.6668122341916068E-5</v>
       </c>
       <c r="S31">
-        <v>-1.5421707267768386E-6</v>
+        <v>-2.7452316000136859E-5</v>
       </c>
       <c r="T31">
-        <v>1.0363163126416342E-5</v>
+        <v>-2.4175631563527771E-5</v>
       </c>
       <c r="U31">
-        <v>2.2633460836790371E-5</v>
+        <v>-1.2270297710336245E-5</v>
       </c>
       <c r="V31">
-        <v>6.7639326668333206E-6</v>
+        <v>-1.5869528169918859E-5</v>
       </c>
       <c r="W31">
-        <v>-5.5935211088098836E-6</v>
+        <v>-2.822698194556125E-5</v>
       </c>
       <c r="X31">
-        <v>6.4415090503972005E-6</v>
+        <v>-1.6191951786353949E-5</v>
       </c>
       <c r="Y31">
-        <v>3.4936807649166355E-6</v>
+        <v>-1.9139780071834487E-5</v>
       </c>
       <c r="Z31">
-        <v>5.3205861695614131E-6</v>
+        <v>-1.7312874667189357E-5</v>
       </c>
       <c r="AA31">
-        <v>-1.4794162497440174E-5</v>
+        <v>-1.4794162497436501E-5</v>
       </c>
       <c r="AB31">
-        <v>7.6765128040046692E-5</v>
+        <v>7.6765128040017812E-5</v>
       </c>
       <c r="AC31">
-        <v>-4.5938356777560708E-5</v>
+        <v>-4.5938356777559827E-5</v>
       </c>
       <c r="AD31">
-        <v>-1.5400483903702314E-6</v>
+        <v>-1.5400483903688761E-6</v>
       </c>
       <c r="AE31">
-        <v>9.0827740962338554E-6</v>
+        <v>9.0827740962336927E-6</v>
       </c>
       <c r="AF31">
-        <v>1.901046554243431E-5</v>
+        <v>1.9010465542434852E-5</v>
       </c>
       <c r="AG31">
-        <v>-1.4793936027414744E-4</v>
+        <v>-1.2530589943739781E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3">
-        <v>-3.2653766234572923</v>
+      <c r="B32" s="4">
+        <v>-3.6078282783777493</v>
       </c>
       <c r="C32">
-        <v>-3.2194498986190209E-4</v>
+        <v>-3.2580365947332312E-4</v>
       </c>
       <c r="D32">
-        <v>-6.9864054111452379E-4</v>
+        <v>-7.1177523154099297E-4</v>
       </c>
       <c r="E32">
-        <v>6.7573212312075876E-6</v>
+        <v>6.818008228192149E-6</v>
       </c>
       <c r="F32">
-        <v>-1.364153178053317E-3</v>
+        <v>-1.3817044888693292E-3</v>
       </c>
       <c r="G32">
-        <v>-1.4004758967002201E-3</v>
+        <v>-1.4515105307184939E-3</v>
       </c>
       <c r="H32">
-        <v>-7.1555395568034645E-4</v>
+        <v>-5.1125894296401222E-4</v>
       </c>
       <c r="I32">
-        <v>-1.0167415191356696E-3</v>
+        <v>-8.2090505298183921E-4</v>
       </c>
       <c r="J32">
-        <v>-6.0005536668827778E-4</v>
+        <v>-6.3384837494890277E-4</v>
       </c>
       <c r="K32">
-        <v>-2.1177687311352686E-3</v>
+        <v>-2.1781028188525326E-3</v>
       </c>
       <c r="L32">
-        <v>-2.594162778849384E-3</v>
+        <v>-2.7040592967614192E-3</v>
       </c>
       <c r="M32">
-        <v>-2.9111827745780545E-3</v>
+        <v>-3.0930880866673243E-3</v>
       </c>
       <c r="N32">
-        <v>-3.0411655800238677E-3</v>
+        <v>-3.3832292334415913E-3</v>
       </c>
       <c r="O32">
-        <v>4.6894129483063908E-5</v>
+        <v>5.8672186858728235E-5</v>
       </c>
       <c r="P32">
-        <v>-3.6077692831713911E-3</v>
+        <v>-2.5684226171661557E-3</v>
       </c>
       <c r="Q32">
-        <v>-3.7480944360234409E-3</v>
+        <v>-2.6538028974857058E-3</v>
       </c>
       <c r="R32">
-        <v>-3.520764984912128E-3</v>
+        <v>-2.7937004310048049E-3</v>
       </c>
       <c r="S32">
-        <v>-3.580425713974576E-3</v>
+        <v>-2.5730088651623093E-3</v>
       </c>
       <c r="T32">
-        <v>-3.5626308541654834E-3</v>
+        <v>-2.6397528450136194E-3</v>
       </c>
       <c r="U32">
-        <v>-3.1788508019722937E-3</v>
+        <v>-2.5629627212353113E-3</v>
       </c>
       <c r="V32">
-        <v>-3.3173193691858603E-3</v>
+        <v>-2.30511301540429E-3</v>
       </c>
       <c r="W32">
-        <v>-3.5378077656738616E-3</v>
+        <v>-2.5755646973842378E-3</v>
       </c>
       <c r="X32">
-        <v>-3.7757870862706378E-3</v>
+        <v>-2.8606345503238819E-3</v>
       </c>
       <c r="Y32">
-        <v>-3.2912136909929628E-3</v>
+        <v>-2.3129572344592632E-3</v>
       </c>
       <c r="Z32">
-        <v>-3.6470383730538894E-3</v>
+        <v>-2.6869641818774511E-3</v>
       </c>
       <c r="AA32">
-        <v>-4.5958354444745056E-4</v>
+        <v>-6.1495581578267767E-4</v>
       </c>
       <c r="AB32">
-        <v>3.2931609675409717E-3</v>
+        <v>5.4491855012477183E-3</v>
       </c>
       <c r="AC32">
-        <v>-1.2179170031178712E-3</v>
+        <v>-1.3291789750199835E-3</v>
       </c>
       <c r="AD32">
-        <v>-8.4148927456891226E-4</v>
+        <v>-1.0451339173474009E-3</v>
       </c>
       <c r="AE32">
-        <v>-1.0436834222546515E-3</v>
+        <v>-1.0375488847841298E-3</v>
       </c>
       <c r="AF32">
-        <v>-1.4793936027414744E-4</v>
+        <v>-1.2530589943739781E-4</v>
       </c>
       <c r="AG32">
-        <v>2.7787028952389194E-2</v>
+        <v>2.7176600767580661E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3737,9 +3742,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>-3.2194498986190209E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>-6.9864054111452379E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>6.7573212312075876E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4244,7 +4249,7 @@
         <v>-1.364153178053317E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>-1.4004758967002201E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>-7.1555395568034645E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>-1.0167415191356696E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>-6.0005536668827778E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>-2.1177687311352686E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4850,7 +4855,7 @@
         <v>-2.594162778849384E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>-2.9111827745780545E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>-3.0411655800238677E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5153,7 +5158,7 @@
         <v>4.6894129483063908E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>-3.6077692831713911E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5355,7 +5360,7 @@
         <v>-3.7480944360234409E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5456,7 +5461,7 @@
         <v>-3.520764984912128E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5557,7 +5562,7 @@
         <v>-3.580425713974576E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>-3.5626308541654834E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>-3.1788508019722937E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>-3.3173193691858603E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>-3.5378077656738616E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6062,7 +6067,7 @@
         <v>-3.7757870862706378E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>-3.2912136909929628E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -6264,7 +6269,7 @@
         <v>-3.6470383730538894E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>-4.5958354444745056E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>3.2931609675409717E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>-1.2179170031178712E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6668,7 +6673,7 @@
         <v>-8.4148927456891226E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6769,7 +6774,7 @@
         <v>-1.0436834222546515E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6870,7 +6875,7 @@
         <v>-1.4793936027414744E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>33</v>
       </c>

--- a/input/reg_home_ownership.xlsx
+++ b/input/reg_home_ownership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A9CDF-85B1-4F8A-A701-47D895355923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A883741-65FA-4D3B-9B95-3435D7E9BCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4270,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C0CB4B-6EED-4FE8-B976-791A50B1479F}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
